--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -17,8 +17,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$G$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$P$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$P$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$1387</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$1</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="350">
   <si>
     <t>model_id</t>
   </si>
@@ -240,24 +240,6 @@
     <t>Iron Warriors</t>
   </si>
   <si>
-    <t>Legion Praetor</t>
-  </si>
-  <si>
-    <t>Legion Cataphractii Praetor</t>
-  </si>
-  <si>
-    <t>Legion Tartaros Praetor</t>
-  </si>
-  <si>
-    <t>Legion Centurion</t>
-  </si>
-  <si>
-    <t>Legion Cataphractii Centurion</t>
-  </si>
-  <si>
-    <t>Legion Tartaros Centurion</t>
-  </si>
-  <si>
     <t>Legion Command Squad</t>
   </si>
   <si>
@@ -273,12 +255,6 @@
     <t>Legion Veteran Squad</t>
   </si>
   <si>
-    <t>Legion Terminator Cataphractii Squad</t>
-  </si>
-  <si>
-    <t>Legion Terminator Tartaros Squad</t>
-  </si>
-  <si>
     <t>High Command</t>
   </si>
   <si>
@@ -318,9 +294,6 @@
     <t>Legion Contemptor Dreadnought</t>
   </si>
   <si>
-    <t>Legion Tactical Squad</t>
-  </si>
-  <si>
     <t>Troops</t>
   </si>
   <si>
@@ -363,9 +336,6 @@
     <t>Legion Dreadnought Drop Pod</t>
   </si>
   <si>
-    <t>Exchange both his bolt pistol and chainsword for two lightning claws</t>
-  </si>
-  <si>
     <t>Bolter</t>
   </si>
   <si>
@@ -454,13 +424,6 @@
   </si>
   <si>
     <t>Legiones Astartes (Iron Warrior)</t>
-  </si>
-  <si>
-    <t>A Detachment selected from this Army List is considered to be of the Legiones Astartes (Iron Warrior).
-Note that all units selected as part of a given Detachment must have the Legiones Astartes (Iron Warrior) special rule, or no variant of that special rule.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The greatest commanders of the Space Marine Legions are all  but peerless in their strategic and tactical abilities. The gene craft of the Emperor that created them, honed by individual talent and the experience of countless battles, has sharpened their acumen to a preternatural degree.</t>
   </si>
   <si>
     <t>Astartes</t>
@@ -477,18 +440,6 @@
 ]</t>
   </si>
   <si>
-    <t>[
-    {
-        "title": "\"Wrack &amp; Ruin"\",
-        "description": "When a model with this special rule makes a Shooting Attack or Melee Attack targeting a model with the Dreadnought, Automata, Vehicle or Building Unit Type, it gains +1 to the Strength of that attack."
-    },
-    {
-        "title": "Warsmiths",
-        "description": " A Detachment with this special rule may choose to upgrade a Legion Praetor, Legion Cataphractii Praetor or Legion Tartaros Praetor to a Warsmith (see The Armoury of the Iron Warriors section for details)."
-    }
-]</t>
-  </si>
-  <si>
     <t>[astartes] legion-praetor</t>
   </si>
   <si>
@@ -582,20 +533,10 @@
     <t>[astartes] legion-termite-assault-drill</t>
   </si>
   <si>
-    <t>Legiones Astartes (X)</t>
-  </si>
-  <si>
-    <t>A Detachment selected from this Army List is considered to be of a specific Legion.
-Note that all units selected as part of a given Detachment must have the Legiones Astartes (X) special rule, or no variant of that special rule.</t>
-  </si>
-  <si>
     <t>[astartes] crusade-primary-detachment</t>
   </si>
   <si>
     <t>[astartes] shock-assault</t>
-  </si>
-  <si>
-    <t>['[astartes] legion-terminator-cataphractii-squad', '[astartes] legion-terminator-tartaros-squad']</t>
   </si>
   <si>
     <t>[astartes] army-vanguard</t>
@@ -703,32 +644,488 @@
     <t>This army's primary detachment is the Crusade Primary Detachment and must be selected.</t>
   </si>
   <si>
-    <t>Legiones Astartes [Apex]</t>
-  </si>
-  <si>
-    <t>Legiones Astartes [Auxillary]</t>
-  </si>
-  <si>
-    <t>['[astartes] legion-praetor', '[astartes] legion-cataphractii-praetor', '[astartes] legion-tartaros-praetor', '[astartes] legion-centurion', '[astartes] legion-cataphractii-centurion', '[astartes] legion-tartaros-centurion', '[astartes] legion-damocles-command-rhino', '[astartes] legion-tactical-squad', '[astartes] legion-despoiler-squad', '[astartes] legion-assault-squad', '[astartes] legion-breacher-squad', '[astartes] legion-rhino', '[astartes] legion-drop-pod', '[astartes] legion-termite-assault-drill']</t>
-  </si>
-  <si>
-    <t>["[astartes] legion-praetor", "[astartes] legion-cataphractii-praetor", "[astartes] legion-tartaros-praetor"]</t>
-  </si>
-  <si>
-    <t>A High Command is required to select an Apex Detachment.</t>
-  </si>
-  <si>
     <t>["[astartes] legion-centurion", "[astartes] legion-cataphractii-centurion", "[astartes] legion-tartaros-centurion", "[astartes] legion-damocles-command-rhino"]</t>
   </si>
   <si>
     <t>A Command sub-type model is required to select an Auxillary Detachment.</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>Primarch</t>
+  </si>
+  <si>
+    <t>Perturabo</t>
+  </si>
+  <si>
+    <t>Warlord</t>
+  </si>
+  <si>
+    <t>[iron-warriors] warlord-perturabo</t>
+  </si>
+  <si>
+    <t>[astartes] legion-fellblade</t>
+  </si>
+  <si>
+    <t>Legion Fellblade</t>
+  </si>
+  <si>
+    <t>Lord of War</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "title": "\"Wrack &amp; Ruin\"",
+        "description": "When a model with this special rule makes a Shooting Attack or Melee Attack targeting a model with the Dreadnought, Automata, Vehicle or Building Unit Type, it gains +1 to the Strength of that attack."
+    },
+    {
+        "title": "Warsmiths",
+        "description": " A Detachment with this special rule may choose to upgrade a Legion Praetor, Legion Cataphractii Praetor or Legion Tartaros Praetor to a Warsmith (see The Armoury of the Iron Warriors section for details)."
+    }
+]</t>
+  </si>
+  <si>
+    <t>A Detachment selected from this Army List is considered to be of a specific Legion. Note that all units selected as part of a given Detachment must have the Legiones Astartes (X) special rule, or no variant of that special rule.</t>
+  </si>
+  <si>
+    <t>['[astartes] legion-command-squad', '[astartes] legion-cataphractii-command-squad', '[astartes] legion-tartaros-command-squad']</t>
+  </si>
+  <si>
+    <t>A Detachment selected from this Army List is considered to be of the Legiones Astartes (Iron Warrior). Note that all units selected as part of a given Detachment must have the Legiones Astartes (Iron Warrior) special rule, or no variant of that special rule.</t>
+  </si>
+  <si>
+    <t>May select a rite of war. May select one Apex Detachment.</t>
+  </si>
+  <si>
+    <t>Apex Detachment</t>
+  </si>
+  <si>
+    <t>Auxillary Detachment</t>
+  </si>
+  <si>
+    <t>A Master of the Legion is required to select an Apex Detachment.</t>
+  </si>
+  <si>
+    <t>Bulky (X)</t>
+  </si>
+  <si>
+    <t>Explodes (X)</t>
+  </si>
+  <si>
+    <t>Implacable Advance</t>
+  </si>
+  <si>
+    <t>Slow and Purposeful</t>
+  </si>
+  <si>
+    <t>[Legiones Astartes]</t>
+  </si>
+  <si>
+    <t>[Allegiance]</t>
+  </si>
+  <si>
+    <t>Barrage (X)</t>
+  </si>
+  <si>
+    <t>Blast (X)</t>
+  </si>
+  <si>
+    <t>Breaching (X)</t>
+  </si>
+  <si>
+    <t>Overload (X)</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Reaping Blow (X)</t>
+  </si>
+  <si>
+    <t>Critical Hit (X)</t>
+  </si>
+  <si>
+    <t>Suppressive (X)</t>
+  </si>
+  <si>
+    <t>Fear (X)</t>
+  </si>
+  <si>
+    <t>Fast (X)</t>
+  </si>
+  <si>
+    <t>Feel No Pain (X)</t>
+  </si>
+  <si>
+    <t>Shread (X)</t>
+  </si>
+  <si>
+    <t>Rending (X)</t>
+  </si>
+  <si>
+    <t>Deep Strike</t>
+  </si>
+  <si>
+    <t>Firing Protocols (X)</t>
+  </si>
+  <si>
+    <t>Hatred (X)</t>
+  </si>
+  <si>
+    <t>Force (X)</t>
+  </si>
+  <si>
+    <t>Heavy (X)</t>
+  </si>
+  <si>
+    <t>Vanguard (X)</t>
+  </si>
+  <si>
+    <t>Weapons and other attacks that have the Suppressive (X) Special Rule have a chance of inflicting the Suppressed Status on the Target Unit.</t>
+  </si>
+  <si>
+    <t>Weapons and attacks with the Template Special Rule use the Flame Template to determine how many Models they Hit.</t>
+  </si>
+  <si>
+    <t>A Unit that includes Models with this Special Rule scores fewer Victory Points for controlling Objectives, but can score Victory Points for destroying enemy Units that hold Objectives.</t>
+  </si>
+  <si>
+    <t>If a Model with this Special Rule is outnumbered, it gains extra attacks.</t>
+  </si>
+  <si>
+    <t>With a Weapon that has the Rending (X) Special Rule, there is a chance that a Hit Test may result in an automatic wound.</t>
+  </si>
+  <si>
+    <t>Shock (X)</t>
+  </si>
+  <si>
+    <t>Shrouded (X)</t>
+  </si>
+  <si>
+    <t>Weapons with the Shock (X) Special Rule have a chance of inflicting Statuses on Vehicles even if it does not penetrate their armour.</t>
+  </si>
+  <si>
+    <t>Attacks made with the Shread (X) Special Rule can sometimes inflict an extra point of damage.</t>
+  </si>
+  <si>
+    <t>Shrouded (X) is a Damage Migration Test that may be taken in addition to a Saving Throw.</t>
+  </si>
+  <si>
+    <t>Skyfire</t>
+  </si>
+  <si>
+    <t>Attacks made with the Skyfire Special Rule ignore penalties when attacking Flyers.</t>
+  </si>
+  <si>
+    <t>Stun (X)</t>
+  </si>
+  <si>
+    <t>Weapons and other attacks that have the Stun (X) Special Rule have a chance of inflicting the Stunned Status on the Target Unit.</t>
+  </si>
+  <si>
+    <t>Support Unit (X)</t>
+  </si>
+  <si>
+    <t>A Unit that includes Models with this Special Rule scores fewer Victory Points for controlling Objective Markers.</t>
+  </si>
+  <si>
+    <t>Outflank</t>
+  </si>
+  <si>
+    <t>Panic (X)</t>
+  </si>
+  <si>
+    <t>Phage (X)</t>
+  </si>
+  <si>
+    <t>Pinning (X)</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Poisoned (X)</t>
+  </si>
+  <si>
+    <t>Precision (X)</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>A Unit of Models with the Outflank Special Rule can enter play from outside of Deployment Zones.</t>
+  </si>
+  <si>
+    <t>Weapons and other attacks that have the Panic (X) Special Rule have a chance of inflicting the Routed Status on the Target Unit.</t>
+  </si>
+  <si>
+    <t>Unsaved Wounds with the Phage (X) Special Rule reduce a Characteristic by 1.</t>
+  </si>
+  <si>
+    <t>Weapons and other attacks that have the Pinning (X) Special Rule have a chance of inflicting the Pinned Status on the Target Unit.</t>
+  </si>
+  <si>
+    <t>A Model may attack with two Weapons that have the Pistol Special Rule.</t>
+  </si>
+  <si>
+    <t>A Weapon with the Poisoned (X) Special Rule has a chance to cause a wound regardless of the target's Toughness.</t>
+  </si>
+  <si>
+    <t>Attacks made with the Precision (X) Special Rule are allocated by the Attacking Player, not the Defender.</t>
+  </si>
+  <si>
+    <t>Heedless</t>
+  </si>
+  <si>
+    <t>Impact (X)</t>
+  </si>
+  <si>
+    <t>Infiltrate (X)</t>
+  </si>
+  <si>
+    <t>Light Transport</t>
+  </si>
+  <si>
+    <t>Models with this Special Rule cannot carry models with the Bulky (X) Special Rule.</t>
+  </si>
+  <si>
+    <t>Limited (X)</t>
+  </si>
+  <si>
+    <t>Line (X)</t>
+  </si>
+  <si>
+    <t>Move Through Cover</t>
+  </si>
+  <si>
+    <t>Officer of the Line (X)</t>
+  </si>
+  <si>
+    <t>Models with this Special Rule allow more Auxillary Detachments to be included in an Army.</t>
+  </si>
+  <si>
+    <t>Ordnance (X)</t>
+  </si>
+  <si>
+    <t>Weapons with the Ordnance (X) Special Rule double the value of a Characteristic when Stationary.</t>
+  </si>
+  <si>
+    <t>The Move Through Cover Special Rule allows the penalties of terrain to be ignored.</t>
+  </si>
+  <si>
+    <t>A Unit of Models with this Special Rule can control Objectives more easily and scores more Victory Points from controlling an Objective.</t>
+  </si>
+  <si>
+    <t>A Weapon with the Limited (X) Special Rule can only be used to attack a limited number of times per Battle.</t>
+  </si>
+  <si>
+    <t>Models with the Infiltrate (X) Special Rule can deploy outside of their Deployment Zone.</t>
+  </si>
+  <si>
+    <t>On a successful Charge, a Model with the Impact (X) Special Rule temporarily increases a Characteristic by 1.</t>
+  </si>
+  <si>
+    <t>A Unit that includes any Models with this Special Rule cannot claim Objectives.</t>
+  </si>
+  <si>
+    <t>A Model with this Special Rule can explode and cause Hits to nearby Models and Units.</t>
+  </si>
+  <si>
+    <t>A Unit that only includes Mmodels with the Fast (X) Special Rule gains a bonus to Rush and Charge Moves.</t>
+  </si>
+  <si>
+    <t>Feel No Pain (X) is a Damage Mitigation Test that may be taken in addition to a Saving Throw.</t>
+  </si>
+  <si>
+    <t>Models near an enemy Model with the Fear (X) Special Rule must reduce their Advanced Characteristics.</t>
+  </si>
+  <si>
+    <t>The Hatred (X) Special Rule grants bonuses against enemies of a specific Faction, Type or Trait.</t>
+  </si>
+  <si>
+    <t>A Weapon with this Special Rule may double a Characteristic with a Willpower Check, but may suffer Perils of the Warp.</t>
+  </si>
+  <si>
+    <t>Weapons with the Heavy (X) Special Rule gain _1 to a Characteristic when Stationary.</t>
+  </si>
+  <si>
+    <t>A Model with the Firing Protocols (X) Special Rule may attack with more than one ranged weapon.</t>
+  </si>
+  <si>
+    <t>Liber</t>
+  </si>
+  <si>
+    <t>Models with the Bulky (X) Special Rule take up more space on Transport Models.</t>
+  </si>
+  <si>
+    <t>Attacks made with the Critical Hit (X) Special Rule have a chance to automatically cause a wound and inflict 1 extra point of damage.</t>
+  </si>
+  <si>
+    <t>The Deep Strike Special Rule allows a Unit to enter play anywhere on the Battlefield.</t>
+  </si>
+  <si>
+    <t>Deflagrate (X)</t>
+  </si>
+  <si>
+    <t>Detonation</t>
+  </si>
+  <si>
+    <t>Duellist's Edge (X)</t>
+  </si>
+  <si>
+    <t>Eternal Warrior (X)</t>
+  </si>
+  <si>
+    <t>Expendable (X)</t>
+  </si>
+  <si>
+    <t>Unsaved Wounds inflicted by attacks with the Deflagrate (X) Special Rule can cause additional Hits.</t>
+  </si>
+  <si>
+    <t>Weapons with this Special Rule can only attack Vehicles and immobile Models.</t>
+  </si>
+  <si>
+    <t>A Weapon with the Duellist's Edge (X) Special Rule grants a bonus to Focus Rolls in Challenges.</t>
+  </si>
+  <si>
+    <t>A Model with this Special Rule takes less Damage from attacks.</t>
+  </si>
+  <si>
+    <t>A Player scores less Victory Points when they destroy a Unit that includes only Models with this Special Rule.</t>
+  </si>
+  <si>
+    <t>Armourbane</t>
+  </si>
+  <si>
+    <t>Assault Vehicle</t>
+  </si>
+  <si>
+    <t>Auto-repair (X)</t>
+  </si>
+  <si>
+    <t>Battlesmith (X)</t>
+  </si>
+  <si>
+    <t>A Weapon with the Armourbane Special Rule counts Glancing Hits as Penetrating Hits.</t>
+  </si>
+  <si>
+    <t>A Vehicle with this Special Rule allows Models to Disembark and Charge without penalty.</t>
+  </si>
+  <si>
+    <t>A Model with this Special Rule has a bonus to Repair Tests to remove Statuses.</t>
+  </si>
+  <si>
+    <t>A Weapon with this Special Rule may be used to attack Target Units out of Line of Sight.</t>
+  </si>
+  <si>
+    <t>A Model with the Battlesmith (X) Special Rule can repair Vehicles, Automata and other mechanical Units.</t>
+  </si>
+  <si>
+    <t>Attacks made with the Blast (X) Special Rule use a Blast Marker to determine how many Hits are caused.</t>
+  </si>
+  <si>
+    <t>With a Weapon that has the Breaching (X) Special Rule there is a chance that a Wound Test may result I nthe Wound ignoring Armour Saves.</t>
+  </si>
+  <si>
+    <t>[astartes] legion-saturnine-praetor</t>
+  </si>
+  <si>
+    <t>Praetor in Saturnine Terminator Armour</t>
+  </si>
+  <si>
+    <t>OPT0028</t>
+  </si>
+  <si>
+    <t>OPT0029</t>
+  </si>
+  <si>
+    <t>OPT0030</t>
+  </si>
+  <si>
+    <t>OPT0031</t>
+  </si>
+  <si>
+    <t>OPT0032</t>
+  </si>
+  <si>
+    <t>OPT0033</t>
+  </si>
+  <si>
+    <t>OPT0034</t>
+  </si>
+  <si>
+    <t>Saturnine concussion hammer</t>
+  </si>
+  <si>
+    <t>Plasma Blaster</t>
+  </si>
+  <si>
+    <t>Saturnine teleportation transponder</t>
+  </si>
+  <si>
+    <t>['[astartes] legion-praetor', '[astartes] legion-saturnine-praetor', '[astartes] legion-cataphractii-praetor', '[astartes] legion-tartaros-praetor', '[astartes] legion-centurion', '[astartes] legion-cataphractii-centurion', '[astartes] legion-tartaros-centurion', '[astartes] legion-damocles-command-rhino', '[astartes] legion-tactical-squad', '[astartes] legion-despoiler-squad', '[astartes] legion-assault-squad', '[astartes] legion-breacher-squad', '[astartes] legion-rhino', '[astartes] legion-drop-pod', '[astartes] legion-termite-assault-drill']</t>
+  </si>
+  <si>
+    <t>['[iron-warriors] warlord-perturabo']</t>
+  </si>
+  <si>
+    <t>["[astartes] legion-praetor", "[astartes] legion-saturnine-praetor", "[astartes] legion-cataphractii-praetor", "[astartes] legion-tartaros-praetor"]</t>
+  </si>
+  <si>
+    <t>Praetor in Cataphractii Terminator Armour</t>
+  </si>
+  <si>
+    <t>Praetor in Tartaros Terminator Armour</t>
+  </si>
+  <si>
+    <t>Praetor in Artificer Armour</t>
+  </si>
+  <si>
+    <t>Centurion in Artificer Armour</t>
+  </si>
+  <si>
+    <t>Centurion in Cataphractii Terminator Armour</t>
+  </si>
+  <si>
+    <t>Centurion in Tartaros Terminator Armour</t>
+  </si>
+  <si>
+    <t>Cataphractii Terminator Squad</t>
+  </si>
+  <si>
+    <t>Tartaros Terminator Squad</t>
+  </si>
+  <si>
+    <t>Saturnine Terminator Squad</t>
+  </si>
+  <si>
+    <t>[astartes] legion-terminator-saturnine-squad</t>
+  </si>
+  <si>
+    <t>['[astartes] legion-terminator-saturnine-squad', '[astartes] legion-terminator-cataphractii-squad', '[astartes] legion-terminator-tartaros-squad']</t>
+  </si>
+  <si>
+    <t>Plasma Bombard</t>
+  </si>
+  <si>
+    <t>Twin heavy disintegrator</t>
+  </si>
+  <si>
+    <t>Particle Shredder</t>
+  </si>
+  <si>
+    <t>Two lightning claws</t>
+  </si>
+  <si>
+    <t>Tactical Squad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -782,6 +1179,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -914,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1021,11 +1424,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1173,13 +1615,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>168120</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>349200</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1225,13 +1667,60 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>168120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="181080" cy="261000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5231409" y="401053"/>
+          <a:ext cx="181080" cy="261000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168120</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="181080" cy="261000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 1">
+        <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -1588,11 +2077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1601,7 +2090,7 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
@@ -1666,22 +2155,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>65</v>
+        <v>336</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1">
         <v>120</v>
@@ -1711,25 +2200,25 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="9" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="H3" s="9" t="b">
         <f>FALSE()</f>
@@ -1756,25 +2245,25 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H4" s="9" t="b">
         <f>FALSE()</f>
@@ -1801,25 +2290,25 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>68</v>
+        <v>335</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H5" s="9" t="b">
         <f>FALSE()</f>
@@ -1846,25 +2335,25 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="H6" s="9" t="b">
         <f>FALSE()</f>
@@ -1891,25 +2380,25 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>70</v>
+        <v>338</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H7" s="9" t="b">
         <f>FALSE()</f>
@@ -1936,25 +2425,25 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="G8" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H8" s="9" t="b">
         <f>FALSE()</f>
@@ -1981,25 +2470,25 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="9" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="G9" s="1">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="H9" s="9" t="b">
         <f>FALSE()</f>
@@ -2026,25 +2515,25 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="9" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H10" s="9" t="b">
         <f>FALSE()</f>
@@ -2071,25 +2560,25 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="9" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H11" s="9" t="b">
         <f>FALSE()</f>
@@ -2116,25 +2605,25 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="9" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="H12" s="9" t="b">
         <f>FALSE()</f>
@@ -2161,22 +2650,22 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="9" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1">
         <v>115</v>
@@ -2206,25 +2695,25 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="H14" s="9" t="b">
         <f>FALSE()</f>
@@ -2251,25 +2740,25 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="9" t="s">
-        <v>156</v>
+        <v>343</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H15" s="9" t="b">
         <f>FALSE()</f>
@@ -2296,25 +2785,25 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="H16" s="9" t="b">
         <f>FALSE()</f>
@@ -2341,25 +2830,25 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="9" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="H17" s="9" t="b">
         <f>FALSE()</f>
@@ -2385,26 +2874,26 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="32" t="s">
-        <v>159</v>
+      <c r="A18" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="H18" s="9" t="b">
         <f>FALSE()</f>
@@ -2430,26 +2919,26 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="32" t="s">
-        <v>160</v>
+      <c r="A19" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="G19" s="1">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H19" s="9" t="b">
         <f>FALSE()</f>
@@ -2475,26 +2964,26 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="9" t="s">
-        <v>161</v>
+      <c r="A20" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>180</v>
+        <v>95</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G20" s="1">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="H20" s="9" t="b">
         <f>FALSE()</f>
@@ -2520,26 +3009,26 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="9" t="s">
-        <v>162</v>
+      <c r="A21" s="32" t="s">
+        <v>147</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
       </c>
       <c r="G21" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H21" s="9" t="b">
         <f>FALSE()</f>
@@ -2566,25 +3055,25 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
       </c>
       <c r="G22" s="1">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H22" s="9" t="b">
         <f>FALSE()</f>
@@ -2611,25 +3100,25 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H23" s="9" t="b">
         <f>FALSE()</f>
@@ -2656,25 +3145,25 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>94</v>
+        <v>349</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G24" s="1">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="H24" s="9" t="b">
         <f>FALSE()</f>
@@ -2701,25 +3190,25 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="9" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G25" s="1">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="H25" s="9" t="b">
         <f>FALSE()</f>
@@ -2746,25 +3235,25 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="9" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G26" s="1">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="H26" s="9" t="b">
         <f>FALSE()</f>
@@ -2791,25 +3280,25 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="9" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G27" s="1">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="H27" s="9" t="b">
         <f>FALSE()</f>
@@ -2836,25 +3325,25 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="9" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H28" s="9" t="b">
         <f>FALSE()</f>
@@ -2881,25 +3370,25 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G29" s="1">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="H29" s="9" t="b">
         <f>FALSE()</f>
@@ -2926,25 +3415,25 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G30" s="1">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H30" s="9" t="b">
         <f>FALSE()</f>
@@ -2971,25 +3460,25 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="9" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G31" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H31" s="9" t="b">
         <f>FALSE()</f>
@@ -3016,25 +3505,25 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="9" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G32" s="1">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H32" s="9" t="b">
         <f>FALSE()</f>
@@ -3059,8 +3548,188 @@
         <v>16</v>
       </c>
     </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="1">
+        <v>100</v>
+      </c>
+      <c r="H33" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="1">
+        <v>80</v>
+      </c>
+      <c r="H34" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="1">
+        <v>600</v>
+      </c>
+      <c r="H35" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="1">
+        <v>400</v>
+      </c>
+      <c r="H36" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P32"/>
+  <autoFilter ref="A1:P34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3073,7 +3742,7 @@
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3124,16 +3793,16 @@
         <v>24</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D2" s="33">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>110</v>
+      <c r="E2" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="34"/>
@@ -3145,16 +3814,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D3" s="33">
         <v>10</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>110</v>
+      <c r="E3" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="34"/>
@@ -3166,16 +3835,16 @@
         <v>26</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D4" s="33">
         <v>5</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>110</v>
+      <c r="E4" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
@@ -3187,16 +3856,16 @@
         <v>27</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D5" s="33">
         <v>2</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>110</v>
+      <c r="E5" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="34"/>
@@ -3208,16 +3877,16 @@
         <v>28</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D6" s="33">
         <v>2</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>110</v>
+      <c r="E6" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
@@ -3229,16 +3898,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D7" s="33">
         <v>10</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>110</v>
+      <c r="E7" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
@@ -3250,16 +3919,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D8" s="33">
         <v>2</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>125</v>
+      <c r="E8" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
@@ -3271,16 +3940,16 @@
         <v>31</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D9" s="33">
         <v>2</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>125</v>
+      <c r="E9" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
@@ -3292,16 +3961,16 @@
         <v>32</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D10" s="33">
         <v>10</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>125</v>
+      <c r="E10" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
@@ -3313,16 +3982,16 @@
         <v>33</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D11" s="33">
         <v>15</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>125</v>
+      <c r="E11" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
@@ -3334,16 +4003,16 @@
         <v>34</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D12" s="33">
         <v>20</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>125</v>
+      <c r="E12" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
@@ -3355,16 +4024,16 @@
         <v>35</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D13" s="33">
         <v>5</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>125</v>
+      <c r="E13" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
@@ -3376,16 +4045,16 @@
         <v>36</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D14" s="33">
         <v>10</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>125</v>
+      <c r="E14" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
@@ -3397,16 +4066,16 @@
         <v>37</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D15" s="33">
         <v>15</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>125</v>
+      <c r="E15" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
@@ -3418,16 +4087,16 @@
         <v>38</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D16" s="33">
         <v>25</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>125</v>
+      <c r="E16" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
@@ -3439,16 +4108,16 @@
         <v>39</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D17" s="33">
         <v>10</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>125</v>
+      <c r="E17" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
@@ -3460,16 +4129,16 @@
         <v>40</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D18" s="10">
         <v>30</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>125</v>
+      <c r="E18" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
@@ -3481,16 +4150,16 @@
         <v>41</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D19" s="33">
         <v>30</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>125</v>
+      <c r="E19" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
@@ -3502,16 +4171,16 @@
         <v>42</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D20" s="33">
         <v>0</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>125</v>
+      <c r="E20" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
@@ -3523,16 +4192,16 @@
         <v>43</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>106</v>
+        <v>348</v>
       </c>
       <c r="D21" s="33">
         <v>20</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>118</v>
+      <c r="E21" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
@@ -3544,16 +4213,16 @@
         <v>44</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D22" s="33">
         <v>0</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>110</v>
+      <c r="E22" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
@@ -3565,16 +4234,16 @@
         <v>45</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D23" s="33">
         <v>10</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>110</v>
+      <c r="E23" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
@@ -3586,16 +4255,16 @@
         <v>46</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D24" s="33">
         <v>10</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>110</v>
+      <c r="E24" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
@@ -3607,20 +4276,22 @@
         <v>47</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D25" s="33">
         <v>20</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="38" t="s">
+        <v>196</v>
+      </c>
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3628,20 +4299,22 @@
         <v>48</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D26" s="33">
         <v>20</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="38" t="s">
+        <v>196</v>
+      </c>
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3649,94 +4322,166 @@
         <v>49</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D27" s="33">
         <v>30</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="38" t="s">
+        <v>196</v>
+      </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="33">
+        <v>10</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>115</v>
+      </c>
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="33">
+        <v>10</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="33">
+        <v>60</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="F30" s="33"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="33">
+        <v>0</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>115</v>
+      </c>
       <c r="F31" s="33"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="33">
+        <v>10</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>115</v>
+      </c>
       <c r="F32" s="33"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" s="33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>115</v>
+      </c>
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" s="33">
+        <v>5</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>100</v>
+      </c>
       <c r="F34" s="33"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
@@ -19199,7 +19944,7 @@
   <autoFilter ref="A1:I1387"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -19208,11 +19953,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -19223,7 +19968,7 @@
     <col min="4" max="4" width="95.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
@@ -19237,409 +19982,808 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45">
+      <c r="D2" s="16"/>
+      <c r="E2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
       <c r="A3" s="16" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45">
-      <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>205</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="18"/>
+      <c r="D16" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="16" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="D18" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="18" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="18" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="18" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="D24" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="18"/>
+      <c r="A26" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30">
+      <c r="A28" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="16" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="18" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="16"/>
+      <c r="D30" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="18" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="16" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="16" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="18"/>
+      <c r="D34" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="16" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="18" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="D37" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30">
+      <c r="A38" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="D38" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30">
+      <c r="A39" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="16" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="16" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="16" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="16" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="18"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A43" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30">
+      <c r="A44" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="16" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="16"/>
+      <c r="D45" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30">
+      <c r="A46" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="16" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="18"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
+      <c r="A47" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30">
+      <c r="A48" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30">
+      <c r="A49" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
+      <c r="D49" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
+      <c r="D50" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C51" s="10"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="16"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="18"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="D51" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30">
+      <c r="A52" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30">
+      <c r="A56" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C56" s="10"/>
-      <c r="D56" s="16"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="16"/>
+      <c r="D56" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30">
+      <c r="A59" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30">
+      <c r="A60" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="16"/>
+      <c r="E61" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="18"/>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="16"/>
+      <c r="E63" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="16"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D49">
+  <autoFilter ref="A1:D38">
     <sortState ref="A2:D149">
       <sortCondition ref="A2:A149"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A4:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="A16:A20 A14 A1 A5:A10 A25:A1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19649,7 +20793,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19691,13 +20835,13 @@
     </row>
     <row r="2" spans="1:8" ht="120">
       <c r="A2" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -19706,7 +20850,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="210">
@@ -19717,7 +20861,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -20401,7 +21545,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -20424,10 +21568,10 @@
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="9" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>16</v>
@@ -20435,10 +21579,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>16</v>
@@ -20446,10 +21590,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>16</v>
@@ -20457,10 +21601,10 @@
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>16</v>
@@ -20468,7 +21612,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>16</v>
@@ -20476,10 +21620,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>16</v>
@@ -20487,7 +21631,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>16</v>
@@ -20495,10 +21639,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -20506,10 +21650,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>16</v>
@@ -20517,10 +21661,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>16</v>
@@ -20528,7 +21672,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>16</v>
@@ -20536,7 +21680,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>191</v>
+        <v>175</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>332</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>16</v>
@@ -20544,7 +21691,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>16</v>
@@ -20552,7 +21699,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>16</v>
@@ -20581,8 +21728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C15" sqref="C14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20610,44 +21757,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5">
       <c r="A3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="38.25">
       <c r="A4" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -13,12 +13,11 @@
     <sheet name="army_lists" sheetId="4" r:id="rId4"/>
     <sheet name="hero_constraints" sheetId="5" r:id="rId5"/>
     <sheet name="warning_rules" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$D$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$I$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$1387</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$1</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="390">
   <si>
     <t>model_id</t>
   </si>
@@ -484,9 +483,6 @@
     <t>['[astartes] legion-centurion', '[astartes] legion-cataphractii-centurion', '[astartes] legion-tartaros-centurion', '[astartes] legion-damocles-command-rhino']</t>
   </si>
   <si>
-    <t>['[astartes] legion-contemptor-dreadnought']</t>
-  </si>
-  <si>
     <t>['[astartes] legion-recon-squad', '[astartes] legion-scout-squad']</t>
   </si>
   <si>
@@ -1111,9 +1107,6 @@
     <t>Sergeant</t>
   </si>
   <si>
-    <t>subtype</t>
-  </si>
-  <si>
     <t>This unit is either a Loyalist or a Traitor, and all models in the army must be from the same Allegiance</t>
   </si>
   <si>
@@ -1186,6 +1179,66 @@
   </si>
   <si>
     <t>[detachment] allied-detachment</t>
+  </si>
+  <si>
+    <t>saturnine-dreadnought</t>
+  </si>
+  <si>
+    <t>Saturnine Dreadnought</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Smokescreen</t>
+  </si>
+  <si>
+    <t>This does something with smoke.</t>
+  </si>
+  <si>
+    <t>OPT0035</t>
+  </si>
+  <si>
+    <t>OPT0036</t>
+  </si>
+  <si>
+    <t>OPT0037</t>
+  </si>
+  <si>
+    <t>OPT0038</t>
+  </si>
+  <si>
+    <t>OPT0039</t>
+  </si>
+  <si>
+    <t>OPT0040</t>
+  </si>
+  <si>
+    <t>OPT0041</t>
+  </si>
+  <si>
+    <t>Disintegrator cannon</t>
+  </si>
+  <si>
+    <t>Inversion beamer</t>
+  </si>
+  <si>
+    <t>Graviton pulveriser</t>
+  </si>
+  <si>
+    <t>Heavy plasma bombard</t>
+  </si>
+  <si>
+    <t>Two concussive resonators</t>
+  </si>
+  <si>
+    <t>Two heavy particle shredders</t>
+  </si>
+  <si>
+    <t>OPT0042</t>
+  </si>
+  <si>
+    <t>['[astartes] legion-contemptor-dreadnought', 'saturnine-dreadnought']</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1540,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1679,7 +1742,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1789,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1836,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2127,11 +2190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -2178,7 +2241,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>95</v>
@@ -2190,10 +2253,10 @@
         <v>64</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2209,7 +2272,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>95</v>
@@ -2221,7 +2284,7 @@
         <v>64</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>58</v>
@@ -2236,7 +2299,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>95</v>
@@ -2248,7 +2311,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>57</v>
@@ -2263,7 +2326,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>95</v>
@@ -2275,10 +2338,10 @@
         <v>64</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2290,7 +2353,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>95</v>
@@ -2302,7 +2365,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>63</v>
@@ -2317,7 +2380,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>95</v>
@@ -2329,7 +2392,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>60</v>
@@ -2344,7 +2407,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>95</v>
@@ -2356,10 +2419,10 @@
         <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2371,7 +2434,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>95</v>
@@ -2383,7 +2446,7 @@
         <v>64</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>128</v>
@@ -2398,7 +2461,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>95</v>
@@ -2410,7 +2473,7 @@
         <v>64</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>62</v>
@@ -2425,7 +2488,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>95</v>
@@ -2437,7 +2500,7 @@
         <v>64</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>59</v>
@@ -2452,7 +2515,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>95</v>
@@ -2464,10 +2527,10 @@
         <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -2479,7 +2542,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>95</v>
@@ -2491,10 +2554,10 @@
         <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -2506,7 +2569,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>95</v>
@@ -2518,10 +2581,10 @@
         <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2533,7 +2596,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>95</v>
@@ -2545,10 +2608,10 @@
         <v>64</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2572,7 +2635,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>56</v>
@@ -2587,7 +2650,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>95</v>
@@ -2599,7 +2662,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>56</v>
@@ -2626,7 +2689,7 @@
         <v>64</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>56</v>
@@ -2653,7 +2716,7 @@
         <v>64</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>56</v>
@@ -2680,7 +2743,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>57</v>
@@ -2707,7 +2770,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>57</v>
@@ -2734,7 +2797,7 @@
         <v>64</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>57</v>
@@ -2761,7 +2824,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>58</v>
@@ -2788,7 +2851,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>58</v>
@@ -2815,7 +2878,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>58</v>
@@ -2842,7 +2905,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>57</v>
@@ -2869,10 +2932,10 @@
         <v>64</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G27" s="1">
         <v>115</v>
@@ -2896,10 +2959,10 @@
         <v>64</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" s="1">
         <v>115</v>
@@ -2911,7 +2974,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>95</v>
@@ -2923,7 +2986,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>59</v>
@@ -2950,7 +3013,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>59</v>
@@ -2977,7 +3040,7 @@
         <v>64</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>59</v>
@@ -3004,10 +3067,10 @@
         <v>64</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G32" s="1">
         <v>130</v>
@@ -3031,10 +3094,10 @@
         <v>64</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G33" s="1">
         <v>105</v>
@@ -3058,7 +3121,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>60</v>
@@ -3085,7 +3148,7 @@
         <v>64</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F35" t="s">
         <v>60</v>
@@ -3112,7 +3175,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
         <v>128</v>
@@ -3139,7 +3202,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>60</v>
@@ -3166,7 +3229,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>61</v>
@@ -3193,7 +3256,7 @@
         <v>64</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>61</v>
@@ -3220,7 +3283,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>61</v>
@@ -3247,7 +3310,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>61</v>
@@ -3274,7 +3337,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>60</v>
@@ -3301,7 +3364,7 @@
         <v>64</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>62</v>
@@ -3328,7 +3391,7 @@
         <v>64</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>62</v>
@@ -3355,7 +3418,7 @@
         <v>64</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>63</v>
@@ -3382,7 +3445,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>63</v>
@@ -3409,7 +3472,7 @@
         <v>64</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>63</v>
@@ -3436,7 +3499,7 @@
         <v>64</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>63</v>
@@ -3451,7 +3514,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>95</v>
@@ -3463,10 +3526,10 @@
         <v>64</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G49" s="1">
         <v>600</v>
@@ -3478,7 +3541,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>95</v>
@@ -3490,10 +3553,10 @@
         <v>64</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="G50" s="1">
         <v>400</v>
@@ -3505,7 +3568,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>95</v>
@@ -3517,10 +3580,10 @@
         <v>64</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="G51" s="1">
         <v>80</v>
@@ -3532,7 +3595,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>95</v>
@@ -3544,16 +3607,42 @@
         <v>64</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G52" s="1">
         <v>75</v>
       </c>
       <c r="H52" s="7" t="b">
         <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="1">
+        <v>340</v>
+      </c>
+      <c r="H53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3571,7 +3660,7 @@
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4024,7 +4113,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D21" s="30">
         <v>20</v>
@@ -4114,7 +4203,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
@@ -4137,7 +4226,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
@@ -4160,7 +4249,7 @@
         <v>30</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
@@ -4171,13 +4260,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D28" s="30">
         <v>10</v>
@@ -4192,13 +4281,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D29" s="30">
         <v>10</v>
@@ -4213,13 +4302,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" s="30">
         <v>60</v>
@@ -4234,13 +4323,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D31" s="30">
         <v>0</v>
@@ -4255,13 +4344,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D32" s="30">
         <v>10</v>
@@ -4276,13 +4365,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D33" s="30">
         <v>10</v>
@@ -4297,13 +4386,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D34" s="30">
         <v>5</v>
@@ -4317,88 +4406,168 @@
       <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="A35" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35" s="30">
+        <v>10</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="F35" s="30"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D36" s="30">
+        <v>10</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="A37" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D37" s="30">
+        <v>10</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="F37" s="30"/>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="A38" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="F38" s="30"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="A39" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D39" s="30">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="F39" s="30"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="A40" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" s="30">
+        <v>0</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="F40" s="30"/>
       <c r="G40" s="31"/>
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
+      <c r="A41" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="30">
+        <v>10</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="F41" s="30"/>
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="A42" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="30">
+        <v>10</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
@@ -19773,7 +19942,7 @@
   <autoFilter ref="A1:I1387"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -19782,11 +19951,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -19813,26 +19982,26 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E3" s="14"/>
     </row>
@@ -19841,11 +20010,11 @@
         <v>94</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -19854,482 +20023,480 @@
         <v>93</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="14"/>
+      <c r="A6" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>348</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>346</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>348</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
+      <c r="B12" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="32" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35" t="s">
+      <c r="B13" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="34" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35" t="s">
+      <c r="B14" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="34" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
+      <c r="B15" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="32" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33" t="s">
+      <c r="B16" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>163</v>
+      <c r="A18" t="s">
+        <v>252</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
+      <c r="D18" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>164</v>
+      <c r="A20" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="14" t="s">
-        <v>261</v>
+      <c r="C20" s="7"/>
+      <c r="D20" s="16" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
-      <c r="A21" s="8" t="s">
-        <v>165</v>
+      <c r="A21" t="s">
+        <v>254</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14" t="s">
-        <v>262</v>
+      <c r="D21" s="17" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="14" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
       <c r="A23" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="14" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>176</v>
+      <c r="A24" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>242</v>
+      <c r="C24" s="8"/>
+      <c r="D24" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="16" t="s">
-        <v>247</v>
+      <c r="C25" s="8"/>
+      <c r="D25" s="14" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="16" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="16" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="8" t="s">
-        <v>172</v>
+      <c r="A31" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30">
-      <c r="A32" s="8" t="s">
-        <v>171</v>
+      <c r="C31" s="7"/>
+      <c r="D31" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7" t="s">
-        <v>173</v>
+      <c r="C32" s="7"/>
+      <c r="D32" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30">
+      <c r="A33" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
-        <v>177</v>
+      <c r="C33" s="8"/>
+      <c r="D33" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30">
+      <c r="A34" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30">
+      <c r="C34" s="8"/>
+      <c r="D34" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8" t="s">
-        <v>178</v>
+      <c r="A36" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8" t="s">
-        <v>180</v>
+      <c r="C36" s="7"/>
+      <c r="D36" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30">
+      <c r="A37" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="14" t="s">
-        <v>236</v>
+      <c r="C37" s="7"/>
+      <c r="D37" s="16" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
-        <v>214</v>
+      <c r="A40" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="C40" s="8"/>
+      <c r="D40" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30">
-      <c r="A42" s="8" t="s">
-        <v>217</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
+    <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30">
       <c r="A45" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>45</v>
@@ -20341,251 +20508,247 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="30">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="14" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30">
       <c r="A50" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="7" t="s">
-        <v>203</v>
+      <c r="A52" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
-        <v>168</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30">
+      <c r="A54" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="14" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30">
       <c r="A55" s="8" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30">
-      <c r="A56" s="7" t="s">
-        <v>187</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="7" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30">
+      <c r="A57" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8" t="s">
-        <v>188</v>
+      <c r="C57" s="8"/>
+      <c r="D57" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30">
+      <c r="A58" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="14" t="s">
-        <v>191</v>
+      <c r="C58" s="7"/>
+      <c r="D58" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30">
-      <c r="A61" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="14" t="s">
-        <v>197</v>
+      <c r="C61" s="7"/>
+      <c r="D61" s="16" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30">
-      <c r="A62" s="7" t="s">
-        <v>170</v>
+      <c r="A62" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="16" t="s">
-        <v>182</v>
+      <c r="C62" s="8"/>
+      <c r="D62" s="14" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30">
       <c r="A63" s="8" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="14" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30">
       <c r="A64" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C65" s="8"/>
-      <c r="D65" s="14"/>
-      <c r="E65" t="s">
-        <v>238</v>
+      <c r="D65" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30">
       <c r="A66" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E66" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>45</v>
@@ -20593,32 +20756,63 @@
       <c r="C67" s="8"/>
       <c r="D67" s="14"/>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30">
+      <c r="A68" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="14"/>
+      <c r="E69" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D42">
+  <autoFilter ref="A1:D44">
     <sortState ref="A2:D149">
       <sortCondition ref="A2:A149"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A20:A24 A18 A1 A29:A1048576 A5:A14">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  <conditionalFormatting sqref="A22:A26 A20 A1 A31:A1048576 A5 A7:A16">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A29">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A28">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A27">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -20665,7 +20859,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
@@ -20679,7 +20873,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
@@ -21144,10 +21338,10 @@
   </sheetData>
   <autoFilter ref="A1:D108"/>
   <conditionalFormatting sqref="A107:A1048576 A1 A3:A105">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21160,7 +21354,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -21183,10 +21377,10 @@
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>9</v>
@@ -21194,10 +21388,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>9</v>
@@ -21205,7 +21399,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>141</v>
@@ -21216,7 +21410,7 @@
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>129</v>
@@ -21227,10 +21421,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>9</v>
@@ -21238,10 +21432,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>
@@ -21249,10 +21443,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>9</v>
@@ -21260,10 +21454,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>142</v>
+        <v>389</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>9</v>
@@ -21271,10 +21465,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>9</v>
@@ -21282,10 +21476,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>9</v>
@@ -21293,10 +21487,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>9</v>
@@ -21304,10 +21498,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>9</v>
@@ -21315,10 +21509,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>9</v>
@@ -21326,7 +21520,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>141</v>
@@ -21359,7 +21553,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21396,35 +21590,35 @@
         <v>140</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5">
       <c r="A3" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="38.25">
       <c r="A4" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>146</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -21438,89 +21632,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="388">
   <si>
     <t>model_id</t>
   </si>
@@ -1062,13 +1062,7 @@
     <t>traits</t>
   </si>
   <si>
-    <t>Crusade</t>
-  </si>
-  <si>
     <t>First Strike</t>
-  </si>
-  <si>
-    <t>Allied</t>
   </si>
   <si>
     <t>May select a Rite of War. May select one Apex Detachment.</t>
@@ -2194,7 +2188,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -2204,7 +2198,7 @@
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
@@ -2241,7 +2235,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>95</v>
@@ -2256,7 +2250,7 @@
         <v>293</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2272,7 +2266,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>95</v>
@@ -2287,7 +2281,7 @@
         <v>294</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2299,7 +2293,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>95</v>
@@ -2314,7 +2308,7 @@
         <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2326,7 +2320,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>95</v>
@@ -2341,7 +2335,7 @@
         <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2353,7 +2347,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>95</v>
@@ -2367,8 +2361,8 @@
       <c r="E6" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>63</v>
+      <c r="F6" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2380,7 +2374,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>95</v>
@@ -2395,7 +2389,7 @@
         <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -2407,7 +2401,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>95</v>
@@ -2421,8 +2415,8 @@
       <c r="E8" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>341</v>
+      <c r="F8" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2434,7 +2428,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>95</v>
@@ -2449,7 +2443,7 @@
         <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2461,7 +2455,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>95</v>
@@ -2476,7 +2470,7 @@
         <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -2488,7 +2482,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>95</v>
@@ -2503,7 +2497,7 @@
         <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -2515,7 +2509,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>95</v>
@@ -2530,7 +2524,7 @@
         <v>303</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -2542,7 +2536,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>95</v>
@@ -2557,7 +2551,7 @@
         <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -2569,7 +2563,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>95</v>
@@ -2584,7 +2578,7 @@
         <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2596,7 +2590,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>95</v>
@@ -2611,7 +2605,7 @@
         <v>306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2935,7 +2929,7 @@
         <v>311</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G27" s="1">
         <v>115</v>
@@ -2962,7 +2956,7 @@
         <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G28" s="1">
         <v>115</v>
@@ -3070,7 +3064,7 @@
         <v>313</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G32" s="1">
         <v>130</v>
@@ -3097,7 +3091,7 @@
         <v>314</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G33" s="1">
         <v>105</v>
@@ -3121,7 +3115,7 @@
         <v>64</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>60</v>
@@ -3148,7 +3142,7 @@
         <v>64</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F35" t="s">
         <v>60</v>
@@ -3568,7 +3562,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>95</v>
@@ -3580,10 +3574,10 @@
         <v>64</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G51" s="1">
         <v>80</v>
@@ -3595,7 +3589,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>95</v>
@@ -3607,10 +3601,10 @@
         <v>64</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G52" s="1">
         <v>75</v>
@@ -3622,7 +3616,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>95</v>
@@ -3634,7 +3628,7 @@
         <v>64</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>128</v>
@@ -3657,10 +3651,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1577"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4407,13 +4401,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D35" s="30">
         <v>10</v>
@@ -4428,13 +4422,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D36" s="30">
         <v>10</v>
@@ -4449,13 +4443,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D37" s="30">
         <v>10</v>
@@ -4470,13 +4464,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D38" s="30">
         <v>0</v>
@@ -4491,13 +4485,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D39" s="30">
         <v>0</v>
@@ -4512,13 +4506,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D40" s="30">
         <v>0</v>
@@ -4533,13 +4527,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D41" s="30">
         <v>10</v>
@@ -4554,13 +4548,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D42" s="30">
         <v>10</v>
@@ -19955,7 +19949,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -19989,7 +19983,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -20001,7 +19995,7 @@
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E3" s="14"/>
     </row>
@@ -20014,7 +20008,7 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -20027,24 +20021,24 @@
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>331</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
@@ -20064,7 +20058,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -20072,7 +20066,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -20082,7 +20076,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
@@ -20768,7 +20762,7 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E68" t="s">
         <v>237</v>
@@ -20812,7 +20806,7 @@
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -20826,7 +20820,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20859,7 +20853,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
@@ -21338,10 +21332,10 @@
   </sheetData>
   <autoFilter ref="A1:D108"/>
   <conditionalFormatting sqref="A107:A1048576 A1 A3:A105">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21354,7 +21348,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -21377,7 +21371,7 @@
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>274</v>
@@ -21388,7 +21382,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>154</v>
@@ -21399,7 +21393,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>141</v>
@@ -21410,7 +21404,7 @@
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>129</v>
@@ -21421,10 +21415,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>9</v>
@@ -21432,7 +21426,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>143</v>
@@ -21443,10 +21437,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>9</v>
@@ -21454,10 +21448,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>9</v>
@@ -21465,7 +21459,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>142</v>
@@ -21476,7 +21470,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>287</v>
@@ -21487,10 +21481,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>9</v>
@@ -21498,7 +21492,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>275</v>
@@ -21509,10 +21503,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>9</v>
@@ -21520,7 +21514,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>141</v>
@@ -21552,8 +21546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C46" sqref="C42:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500"/>
+    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$D$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$D$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$C$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$I$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$1387</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="386">
   <si>
     <t>model_id</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>OPT0027</t>
-  </si>
-  <si>
-    <t>active_passive</t>
   </si>
   <si>
     <t>description</t>
@@ -777,9 +774,6 @@
     <t>A Model with the Firing Protocols (X) Special Rule may attack with more than one ranged weapon.</t>
   </si>
   <si>
-    <t>Liber</t>
-  </si>
-  <si>
     <t>Models with the Bulky (X) Special Rule take up more space on Transport Models.</t>
   </si>
   <si>
@@ -1111,128 +1105,128 @@
   </si>
   <si>
     <t>With a Weapon that has the Overload (X) Special Rule, there is a chance that a Hit Test may result in an automatic wound to the user.</t>
+  </si>
+  <si>
+    <t>['[astartes] legion-rhino', '[astartes] legion-drop-pod', '[astartes] legion-termite-assault-drill']</t>
+  </si>
+  <si>
+    <t>jetbike-squad</t>
+  </si>
+  <si>
+    <t>Jetbike Squad</t>
+  </si>
+  <si>
+    <t>['jetbike-squad']</t>
+  </si>
+  <si>
+    <t>[detachment] crusade-primary-detachment</t>
+  </si>
+  <si>
+    <t>[detachment] combat-retinue</t>
+  </si>
+  <si>
+    <t>[detachment] officer-cadre</t>
+  </si>
+  <si>
+    <t>[detachment] army-vanguard</t>
+  </si>
+  <si>
+    <t>[detachment] armoured-fist</t>
+  </si>
+  <si>
+    <t>[detachment] tactical-support</t>
+  </si>
+  <si>
+    <t>[detachment] armoured-support</t>
+  </si>
+  <si>
+    <t>[detachment] heavy-support</t>
+  </si>
+  <si>
+    <t>[detachment] combat-pioneers</t>
+  </si>
+  <si>
+    <t>[detachment] shock-assault</t>
+  </si>
+  <si>
+    <t>[detachment] first-strike</t>
+  </si>
+  <si>
+    <t>[detachment] warlord</t>
+  </si>
+  <si>
+    <t>[detachment] lord-of-war</t>
+  </si>
+  <si>
+    <t>[detachment] allied-detachment</t>
+  </si>
+  <si>
+    <t>saturnine-dreadnought</t>
+  </si>
+  <si>
+    <t>Saturnine Dreadnought</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Smokescreen</t>
+  </si>
+  <si>
+    <t>This does something with smoke.</t>
+  </si>
+  <si>
+    <t>OPT0035</t>
+  </si>
+  <si>
+    <t>OPT0036</t>
+  </si>
+  <si>
+    <t>OPT0037</t>
+  </si>
+  <si>
+    <t>OPT0038</t>
+  </si>
+  <si>
+    <t>OPT0039</t>
+  </si>
+  <si>
+    <t>OPT0040</t>
+  </si>
+  <si>
+    <t>OPT0041</t>
+  </si>
+  <si>
+    <t>Disintegrator cannon</t>
+  </si>
+  <si>
+    <t>Inversion beamer</t>
+  </si>
+  <si>
+    <t>Graviton pulveriser</t>
+  </si>
+  <si>
+    <t>Heavy plasma bombard</t>
+  </si>
+  <si>
+    <t>Two concussive resonators</t>
+  </si>
+  <si>
+    <t>Two heavy particle shredders</t>
+  </si>
+  <si>
+    <t>OPT0042</t>
+  </si>
+  <si>
+    <t>['[astartes] legion-contemptor-dreadnought', 'saturnine-dreadnought']</t>
   </si>
   <si>
     <t>[
     {
-        "title": "\"Placeholder"\",
+        "title": "\"Placeholder\"",
         "description": "And they shall know no fear."
     },
 ]</t>
-  </si>
-  <si>
-    <t>['[astartes] legion-rhino', '[astartes] legion-drop-pod', '[astartes] legion-termite-assault-drill']</t>
-  </si>
-  <si>
-    <t>jetbike-squad</t>
-  </si>
-  <si>
-    <t>Jetbike Squad</t>
-  </si>
-  <si>
-    <t>['jetbike-squad']</t>
-  </si>
-  <si>
-    <t>[detachment] crusade-primary-detachment</t>
-  </si>
-  <si>
-    <t>[detachment] combat-retinue</t>
-  </si>
-  <si>
-    <t>[detachment] officer-cadre</t>
-  </si>
-  <si>
-    <t>[detachment] army-vanguard</t>
-  </si>
-  <si>
-    <t>[detachment] armoured-fist</t>
-  </si>
-  <si>
-    <t>[detachment] tactical-support</t>
-  </si>
-  <si>
-    <t>[detachment] armoured-support</t>
-  </si>
-  <si>
-    <t>[detachment] heavy-support</t>
-  </si>
-  <si>
-    <t>[detachment] combat-pioneers</t>
-  </si>
-  <si>
-    <t>[detachment] shock-assault</t>
-  </si>
-  <si>
-    <t>[detachment] first-strike</t>
-  </si>
-  <si>
-    <t>[detachment] warlord</t>
-  </si>
-  <si>
-    <t>[detachment] lord-of-war</t>
-  </si>
-  <si>
-    <t>[detachment] allied-detachment</t>
-  </si>
-  <si>
-    <t>saturnine-dreadnought</t>
-  </si>
-  <si>
-    <t>Saturnine Dreadnought</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>Smokescreen</t>
-  </si>
-  <si>
-    <t>This does something with smoke.</t>
-  </si>
-  <si>
-    <t>OPT0035</t>
-  </si>
-  <si>
-    <t>OPT0036</t>
-  </si>
-  <si>
-    <t>OPT0037</t>
-  </si>
-  <si>
-    <t>OPT0038</t>
-  </si>
-  <si>
-    <t>OPT0039</t>
-  </si>
-  <si>
-    <t>OPT0040</t>
-  </si>
-  <si>
-    <t>OPT0041</t>
-  </si>
-  <si>
-    <t>Disintegrator cannon</t>
-  </si>
-  <si>
-    <t>Inversion beamer</t>
-  </si>
-  <si>
-    <t>Graviton pulveriser</t>
-  </si>
-  <si>
-    <t>Heavy plasma bombard</t>
-  </si>
-  <si>
-    <t>Two concussive resonators</t>
-  </si>
-  <si>
-    <t>Two heavy particle shredders</t>
-  </si>
-  <si>
-    <t>OPT0042</t>
-  </si>
-  <si>
-    <t>['[astartes] legion-contemptor-dreadnought', 'saturnine-dreadnought']</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1529,6 +1523,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1721,13 +1724,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>349200</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
@@ -1736,7 +1739,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1776,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1783,7 +1786,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1823,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1830,7 +1833,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2186,9 +2189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -2235,22 +2238,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2266,22 +2269,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2293,22 +2296,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2320,22 +2323,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2347,22 +2350,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2374,22 +2377,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -2401,22 +2404,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2428,22 +2431,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2455,22 +2458,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -2482,22 +2485,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -2509,22 +2512,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -2536,22 +2539,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -2563,22 +2566,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2590,22 +2593,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2617,22 +2620,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1">
         <v>120</v>
@@ -2644,22 +2647,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1">
         <v>200</v>
@@ -2671,22 +2674,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1">
         <v>135</v>
@@ -2698,22 +2701,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1">
         <v>110</v>
@@ -2725,22 +2728,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>60</v>
@@ -2752,22 +2755,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1">
         <v>85</v>
@@ -2779,22 +2782,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="1">
         <v>75</v>
@@ -2806,22 +2809,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1">
         <v>85</v>
@@ -2833,22 +2836,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1">
         <v>125</v>
@@ -2860,22 +2863,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="1">
         <v>110</v>
@@ -2887,22 +2890,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="1">
         <v>150</v>
@@ -2914,22 +2917,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G27" s="1">
         <v>115</v>
@@ -2941,22 +2944,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G28" s="1">
         <v>115</v>
@@ -2968,22 +2971,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="1">
         <v>175</v>
@@ -2995,22 +2998,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" s="1">
         <v>175</v>
@@ -3022,22 +3025,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" s="1">
         <v>150</v>
@@ -3049,22 +3052,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G32" s="1">
         <v>130</v>
@@ -3076,22 +3079,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G33" s="1">
         <v>105</v>
@@ -3103,22 +3106,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" s="1">
         <v>45</v>
@@ -3130,22 +3133,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" s="1">
         <v>55</v>
@@ -3157,22 +3160,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" s="1">
         <v>175</v>
@@ -3184,22 +3187,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="1">
         <v>40</v>
@@ -3211,22 +3214,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D38" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G38" s="1">
         <v>100</v>
@@ -3238,22 +3241,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D39" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="1">
         <v>100</v>
@@ -3265,22 +3268,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G40" s="1">
         <v>145</v>
@@ -3292,22 +3295,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G41" s="1">
         <v>155</v>
@@ -3319,22 +3322,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="1">
         <v>85</v>
@@ -3346,22 +3349,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G43" s="1">
         <v>85</v>
@@ -3373,22 +3376,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D44" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G44" s="1">
         <v>65</v>
@@ -3400,22 +3403,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="1">
         <v>35</v>
@@ -3427,22 +3430,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="1">
         <v>35</v>
@@ -3454,22 +3457,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D47" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -3481,22 +3484,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="1">
         <v>80</v>
@@ -3508,22 +3511,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G49" s="1">
         <v>600</v>
@@ -3535,22 +3538,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="G50" s="1">
         <v>400</v>
@@ -3562,22 +3565,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="G51" s="1">
         <v>80</v>
@@ -3589,22 +3592,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G52" s="1">
         <v>75</v>
@@ -3616,22 +3619,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D53" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G53" s="1">
         <v>340</v>
@@ -3705,16 +3708,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="30">
         <v>2</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="31"/>
@@ -3726,16 +3729,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="30">
         <v>10</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="31"/>
@@ -3747,16 +3750,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="30">
         <v>5</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
@@ -3768,16 +3771,16 @@
         <v>20</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="30">
         <v>2</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
@@ -3789,16 +3792,16 @@
         <v>21</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="30">
         <v>2</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="31"/>
@@ -3810,16 +3813,16 @@
         <v>22</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="30">
         <v>10</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
@@ -3831,16 +3834,16 @@
         <v>23</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="30">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="31"/>
@@ -3852,16 +3855,16 @@
         <v>24</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="30">
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
@@ -3873,16 +3876,16 @@
         <v>25</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="30">
         <v>10</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
@@ -3894,16 +3897,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="30">
         <v>15</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
@@ -3915,16 +3918,16 @@
         <v>27</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="30">
         <v>20</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
@@ -3936,16 +3939,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="30">
         <v>5</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
@@ -3957,16 +3960,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="30">
         <v>10</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
@@ -3978,16 +3981,16 @@
         <v>30</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="30">
         <v>15</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -3999,16 +4002,16 @@
         <v>31</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="30">
         <v>25</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
@@ -4020,16 +4023,16 @@
         <v>32</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="30">
         <v>10</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -4041,16 +4044,16 @@
         <v>33</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="8">
         <v>30</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
@@ -4062,16 +4065,16 @@
         <v>34</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="30">
         <v>30</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
@@ -4083,16 +4086,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="30">
         <v>0</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
@@ -4104,16 +4107,16 @@
         <v>36</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D21" s="30">
         <v>20</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
@@ -4125,16 +4128,16 @@
         <v>37</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="30">
         <v>0</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
@@ -4146,16 +4149,16 @@
         <v>38</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="30">
         <v>10</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -4167,16 +4170,16 @@
         <v>39</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="30">
         <v>10</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
@@ -4188,22 +4191,22 @@
         <v>40</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="30">
         <v>20</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4211,22 +4214,22 @@
         <v>41</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="30">
         <v>20</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4234,39 +4237,39 @@
         <v>42</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="30">
         <v>30</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D28" s="30">
         <v>10</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
@@ -4275,19 +4278,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D29" s="30">
         <v>10</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -4296,19 +4299,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D30" s="30">
         <v>60</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
@@ -4317,19 +4320,19 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>286</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>288</v>
       </c>
       <c r="D31" s="30">
         <v>0</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
@@ -4338,19 +4341,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D32" s="30">
         <v>10</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
@@ -4359,19 +4362,19 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D33" s="30">
         <v>10</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="31"/>
@@ -4380,19 +4383,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D34" s="30">
         <v>5</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
@@ -4401,19 +4404,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="30" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D35" s="30">
         <v>10</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="31"/>
@@ -4422,19 +4425,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D36" s="30">
         <v>10</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
@@ -4443,19 +4446,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D37" s="30">
         <v>10</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="31"/>
@@ -4464,19 +4467,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D38" s="30">
         <v>0</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="31"/>
@@ -4485,19 +4488,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="30" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D39" s="30">
         <v>0</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="31"/>
@@ -4506,19 +4509,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="30" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D40" s="30">
         <v>0</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="31"/>
@@ -4527,19 +4530,19 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D41" s="30">
         <v>10</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="31"/>
@@ -4548,19 +4551,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="30" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D42" s="30">
         <v>10</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
@@ -19945,22 +19948,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="59.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="95.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
@@ -19970,819 +19972,744 @@
       <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>329</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="32" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="34" t="s">
+      <c r="B14" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="34" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="34" t="s">
+      <c r="B15" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>251</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="B19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="B21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="16" t="s">
+      <c r="B22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30">
-      <c r="A21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="17" t="s">
+    <row r="23" spans="1:3" ht="30">
+      <c r="A23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="8" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30">
+      <c r="A31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30">
+      <c r="A33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30">
+      <c r="A34" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30">
+      <c r="A37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30">
+      <c r="A52" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30">
+      <c r="A55" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30">
+      <c r="A57" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30">
+      <c r="A58" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30">
+      <c r="A62" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30">
+      <c r="A63" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30">
+      <c r="A64" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30">
+      <c r="A65" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30">
+      <c r="A66" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="38"/>
+    </row>
+    <row r="68" spans="1:3" ht="30">
+      <c r="A68" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30">
-      <c r="A25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30">
-      <c r="A33" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30">
-      <c r="A37" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30">
-      <c r="A41" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30">
-      <c r="A45" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30">
-      <c r="A50" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30">
-      <c r="A54" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30">
-      <c r="A55" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30">
-      <c r="A57" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30">
-      <c r="A62" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30">
-      <c r="A63" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30">
-      <c r="A64" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30">
-      <c r="A65" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30">
-      <c r="A66" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="8" t="s">
+      <c r="B68" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="14"/>
-      <c r="E67" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30">
-      <c r="A68" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="E68" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="14"/>
-      <c r="E69" t="s">
-        <v>237</v>
-      </c>
+      <c r="B69" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D44">
+  <autoFilter ref="A1:C44">
     <sortState ref="A2:D149">
       <sortCondition ref="A2:A149"/>
     </sortState>
@@ -20790,7 +20717,7 @@
   <conditionalFormatting sqref="A22:A26 A20 A1 A31:A1048576 A5 A7:A16">
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="C15">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
@@ -20820,7 +20747,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20836,24 +20763,24 @@
         <v>4</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90">
       <c r="A2" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
@@ -20861,13 +20788,13 @@
     </row>
     <row r="3" spans="1:4" ht="210">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
@@ -21363,18 +21290,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>9</v>
@@ -21382,10 +21309,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>9</v>
@@ -21393,10 +21320,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>9</v>
@@ -21404,10 +21331,10 @@
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>9</v>
@@ -21415,10 +21342,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>9</v>
@@ -21426,10 +21353,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>9</v>
@@ -21437,10 +21364,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>9</v>
@@ -21448,10 +21375,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>9</v>
@@ -21459,10 +21386,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>9</v>
@@ -21470,10 +21397,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>9</v>
@@ -21481,10 +21408,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>9</v>
@@ -21492,10 +21419,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>9</v>
@@ -21503,10 +21430,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>9</v>
@@ -21514,10 +21441,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
@@ -21561,7 +21488,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>12</v>
@@ -21570,49 +21497,49 @@
         <v>14</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5">
       <c r="A3" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="38.25">
       <c r="A4" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -1739,7 +1739,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1786,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1833,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -19952,7 +19952,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -20035,7 +20035,7 @@
         <v>332</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="14"/>
     </row>
@@ -20044,7 +20044,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" s="14"/>
     </row>
@@ -20053,7 +20053,7 @@
         <v>341</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -20061,7 +20061,7 @@
         <v>342</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" s="14"/>
     </row>
@@ -20070,7 +20070,7 @@
         <v>367</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="14"/>
     </row>

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$1387</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1739,7 +1739,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1786,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1833,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2189,9 +2189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -3559,8 +3559,8 @@
         <v>400</v>
       </c>
       <c r="H50" s="7" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -19950,9 +19950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -21473,8 +21473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C46" sqref="C42:D46"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500"/>
+    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$D$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$C$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$I$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$1387</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="416">
   <si>
     <t>model_id</t>
   </si>
@@ -1228,12 +1228,155 @@
     },
 ]</t>
   </si>
+  <si>
+    <t>Skirmish</t>
+  </si>
+  <si>
+    <t>Antigrav</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Paragon</t>
+  </si>
+  <si>
+    <t>Automata</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>A unit that includes only Models with the Skirmish Sub-Type has a Unit Coherency range of 3" rather than 2".</t>
+  </si>
+  <si>
+    <t>A unit that includes only Models with the Antigrav Sub-Type may:
+- Ignore the effects of any and all Terrain it passes over during movement
+- Ignore both friendly and enemy models and units when moving</t>
+  </si>
+  <si>
+    <t>Models with the transport sub-type:
+- Have a maximum transport capacity characteristic
+- May only carry Infantry or Paragon Type units
+- May only carry models of the same faction
+- May only carry one unit at a time (joined models count as part of the unit)
+- May not carry part of a unit
+- Are not considered the same unit as the unit they carry</t>
+  </si>
+  <si>
+    <t>Infantry is the most basic Type, and is applied to most models in the game. They use the Core Rules without modification, gaining neither benefit nor penalty. Models with the Infantry Type may Embark and Disembark on Transports.</t>
+  </si>
+  <si>
+    <t>The following rules apply to all models with the Cavalry Type:
+- When making a fall back move, they move a distance equal to their initiative plus the total of two dice rolled and added together
+- May not make use of any cover save granted by terrain features or areas of terrain</t>
+  </si>
+  <si>
+    <t>The following rules apply to all models with the Walker Type:
+- Effects of the Poisoned (x) Special Rule only trigger on a Wound Test with a result of a '6' before modifiers.
+- May attack with all weapons they have in each shooting attack, including reactions. Does not apply to weapons without the 'Assault' trait during Volley attacks.
+- When deciding how many Models a player controls in a Combat, they count as the number of models as equal to their base wounds value.</t>
+  </si>
+  <si>
+    <t>The following rules apply to all models with the Automata Type:
+- Cannot gain any Tactical Statuses and pass any Check made to avoid a Tactical Status.
+- Effects of the Poisoned (x) Special Rule only trigger on a Wound Test with a result of a '6' before modifiers.
+- A unit that includes this type may not make reactions.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The following rules apply to all models with the Unique Sub-Type:
+- An army may not include more than a single instance.
+- May not have any options </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> than those included on its Army list Profile.</t>
+    </r>
+  </si>
+  <si>
+    <t>The following rules apply to all models with the Paragon Type:
+- Any hits are allocated by the controlling player to the target unit
+- May join or be joined by any unit of Infantry type models
+- May Embark and disembark on Transports
+- May Issue and Accept Challenges
+- A Unit may use the characteristics of the Paragon type model to resolve Characteristic Checks
+- When deciding how many Models a player controls in a Combat, they count as the number of models as equal to their base wounds value.</t>
+  </si>
+  <si>
+    <t>The following rules apply to all models with the Command Sub-Type:
+- May join and leave units
+- May Issue and Accept Challenges
+- A Unit may use the characteristics of the Command Sub-Type model to resolve Characteristic Checks</t>
+  </si>
+  <si>
+    <t>Models with the Champion Sub-Type may Issue and Accept Challenges</t>
+  </si>
+  <si>
+    <t>Models with the Specialist Sub-Type may join and leave units</t>
+  </si>
+  <si>
+    <t>Units containing a model with the Sergeant Sub-Type may use the characteristics of the Sergeant Sub-Type model to resolve Characteristic Checks</t>
+  </si>
+  <si>
+    <t>The following rules apply to all models with the Heavy Sub-Type:
+- A Unit that includes only models with this Sub-Type gain a bonus of +1 to their Cool Characteristic for Checks to avoid gaining Tactical Statuses.
+- May not Rush.
+- Only uses its Movement Characteristic to determine how far it moves as part of a Set-up Move, and does not include Initiative.</t>
+  </si>
+  <si>
+    <t>The following rules apply to all models with the Light Sub-Type:
+- A Unit that includes only models with this Sub-Type gain a bonus of +1 to their Initiative when determining how far that Unit may Rush (this stacks with other bonuses).
+- A unit that includes this type may make shooting attacks as Snap Shots. Models and weapons that cannot attack as snap shots still may not make attacks.</t>
+  </si>
+  <si>
+    <t>Mechanicum</t>
+  </si>
+  <si>
+    <t>castellax</t>
+  </si>
+  <si>
+    <t>Liber Mechanicum</t>
+  </si>
+  <si>
+    <t>Castellax Battle Automata</t>
+  </si>
+  <si>
+    <t>sub-type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1296,6 +1439,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1739,7 +1895,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1942,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1989,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2187,11 +2343,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -3643,6 +3799,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="1">
+        <v>100</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I51"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3654,10 +3836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1577"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -19948,11 +20130,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -20030,706 +20212,827 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60">
       <c r="A8" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105">
+      <c r="A9" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="120">
+      <c r="A10" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75">
+      <c r="A11" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="A12" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60">
+      <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="B13" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="90">
+      <c r="A17" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="32" t="s">
+      <c r="B17" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="75">
+      <c r="A18" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45">
+      <c r="A20" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="105">
+      <c r="A21" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B23" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C23" s="35" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="34" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B24" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C24" s="35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="34" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B25" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C25" s="34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="32" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B26" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C26" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>249</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30">
-      <c r="A21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30">
-      <c r="A23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30">
-      <c r="A25" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>244</v>
+      <c r="C27" s="17" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>240</v>
+      <c r="A28" t="s">
+        <v>250</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>245</v>
+      <c r="C28" s="17" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7" t="s">
-        <v>241</v>
+      <c r="A29" t="s">
+        <v>251</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>246</v>
+      <c r="C29" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30">
-      <c r="A31" s="7" t="s">
-        <v>243</v>
+      <c r="A31" t="s">
+        <v>252</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>248</v>
+      <c r="C31" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
-        <v>156</v>
+      <c r="A32" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>228</v>
+      <c r="C32" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30">
       <c r="A33" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7" t="s">
-        <v>171</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30">
+      <c r="A35" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>230</v>
+      <c r="C35" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
-        <v>176</v>
+      <c r="A38" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>232</v>
+      <c r="C38" s="16" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="8" t="s">
-        <v>178</v>
+      <c r="A39" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>234</v>
+      <c r="C39" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
-        <v>210</v>
+      <c r="A40" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>227</v>
+      <c r="C40" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="8" t="s">
-        <v>211</v>
+      <c r="A41" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>226</v>
+      <c r="C41" s="16" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" s="8" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" s="8" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30">
-      <c r="A45" s="8" t="s">
-        <v>216</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>223</v>
+      <c r="C45" s="16" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="8" t="s">
-        <v>217</v>
+      <c r="A46" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="8" t="s">
-        <v>218</v>
+      <c r="C46" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>219</v>
+      <c r="C47" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="8" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30">
       <c r="A51" s="8" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30">
-      <c r="A52" s="8" t="s">
-        <v>199</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>206</v>
+      <c r="C52" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30">
-      <c r="A54" s="7" t="s">
-        <v>201</v>
+      <c r="A54" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30">
       <c r="A55" s="8" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30">
-      <c r="A58" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>187</v>
+      <c r="C58" s="14" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="7" t="s">
-        <v>172</v>
+      <c r="A59" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="C59" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30">
       <c r="A60" s="8" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="7" t="s">
-        <v>190</v>
+      <c r="A61" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>191</v>
+      <c r="C61" s="14" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30">
       <c r="A62" s="8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="30">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30">
       <c r="A64" s="7" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>180</v>
+      <c r="C64" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30">
       <c r="A65" s="8" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="30">
-      <c r="A66" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30">
+      <c r="A67" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30">
+      <c r="A68" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30">
+      <c r="A72" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30">
+      <c r="A73" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30">
+      <c r="A74" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30">
+      <c r="A75" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30">
+      <c r="A76" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="37" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B77" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="38"/>
-    </row>
-    <row r="68" spans="1:3" ht="30">
-      <c r="A68" s="29" t="s">
+      <c r="C77" s="38"/>
+    </row>
+    <row r="78" spans="1:3" ht="30">
+      <c r="A78" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B78" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C78" s="39" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="37" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B79" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="38"/>
+      <c r="C79" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C44">
+  <autoFilter ref="A1:C54">
     <sortState ref="A2:D149">
       <sortCondition ref="A2:A149"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A22:A26 A20 A1 A31:A1048576 A5 A7:A16">
+  <conditionalFormatting sqref="A32:A36 A30 A1 A41:A1048576 A5 A7:A26">
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C25">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A40">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A39">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A37">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
@@ -20747,7 +21050,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21474,7 +21777,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="426">
   <si>
     <t>model_id</t>
   </si>
@@ -1370,6 +1370,36 @@
   </si>
   <si>
     <t>sub-type</t>
+  </si>
+  <si>
+    <t>Apex Detachment Combat Retinue</t>
+  </si>
+  <si>
+    <t>Apex Detachment Officer Cadre</t>
+  </si>
+  <si>
+    <t>Apex Detachment Army Vanguard</t>
+  </si>
+  <si>
+    <t>Auxillary Detachment Armoured Fist</t>
+  </si>
+  <si>
+    <t>Auxillary Detachment Tactical Support</t>
+  </si>
+  <si>
+    <t>Auxillary Detachment Armoured Support</t>
+  </si>
+  <si>
+    <t>Auxillary Detachment Heavy Support</t>
+  </si>
+  <si>
+    <t>Auxillary Detachment Combat Pioneers</t>
+  </si>
+  <si>
+    <t>Auxillary Detachment Shock Assault</t>
+  </si>
+  <si>
+    <t>Auxillary Detachment First Strike</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1925,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1972,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +2019,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2346,8 +2376,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -2440,7 +2470,7 @@
         <v>292</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>292</v>
+        <v>416</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2467,7 +2497,7 @@
         <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2494,7 +2524,7 @@
         <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>418</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2521,7 +2551,7 @@
         <v>295</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2548,7 +2578,7 @@
         <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -2575,7 +2605,7 @@
         <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2602,7 +2632,7 @@
         <v>298</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2629,7 +2659,7 @@
         <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>423</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -2656,7 +2686,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -2683,7 +2713,7 @@
         <v>301</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -3839,7 +3869,7 @@
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -20133,7 +20163,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -21050,7 +21080,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21578,7 +21608,7 @@
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -21777,7 +21807,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -843,9 +843,6 @@
     <t>Attacks made with the Blast (X) Special Rule use a Blast Marker to determine how many Hits are caused.</t>
   </si>
   <si>
-    <t>With a Weapon that has the Breaching (X) Special Rule there is a chance that a Wound Test may result I nthe Wound ignoring Armour Saves.</t>
-  </si>
-  <si>
     <t>[astartes] legion-saturnine-praetor</t>
   </si>
   <si>
@@ -1057,9 +1054,6 @@
   </si>
   <si>
     <t>First Strike</t>
-  </si>
-  <si>
-    <t>May select a Rite of War. May select one Apex Detachment.</t>
   </si>
   <si>
     <t>Infantry</t>
@@ -1400,6 +1394,12 @@
   </si>
   <si>
     <t>Auxillary Detachment First Strike</t>
+  </si>
+  <si>
+    <t>I think this gives an Apex detachment.</t>
+  </si>
+  <si>
+    <t>With a Weapon that has the Breaching (X) Special Rule there is a chance that a Wound Test may result in the Wound ignoring Armour Saves.</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1925,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +1972,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2019,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>94</v>
@@ -2436,10 +2436,10 @@
         <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>94</v>
@@ -2467,10 +2467,10 @@
         <v>63</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>94</v>
@@ -2494,10 +2494,10 @@
         <v>63</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>94</v>
@@ -2521,10 +2521,10 @@
         <v>63</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>94</v>
@@ -2548,10 +2548,10 @@
         <v>63</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>94</v>
@@ -2575,10 +2575,10 @@
         <v>63</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>94</v>
@@ -2602,10 +2602,10 @@
         <v>63</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>94</v>
@@ -2629,10 +2629,10 @@
         <v>63</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>94</v>
@@ -2656,10 +2656,10 @@
         <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>94</v>
@@ -2683,10 +2683,10 @@
         <v>63</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>94</v>
@@ -2710,10 +2710,10 @@
         <v>63</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>94</v>
@@ -2737,10 +2737,10 @@
         <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>94</v>
@@ -2764,10 +2764,10 @@
         <v>63</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>94</v>
@@ -2791,10 +2791,10 @@
         <v>63</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>63</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>94</v>
@@ -2845,7 +2845,7 @@
         <v>63</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>55</v>
@@ -2872,7 +2872,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>55</v>
@@ -2899,7 +2899,7 @@
         <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
@@ -2926,7 +2926,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>56</v>
@@ -2953,7 +2953,7 @@
         <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>56</v>
@@ -2980,7 +2980,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>56</v>
@@ -3007,7 +3007,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>57</v>
@@ -3034,7 +3034,7 @@
         <v>63</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>57</v>
@@ -3061,7 +3061,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>57</v>
@@ -3088,7 +3088,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>56</v>
@@ -3115,10 +3115,10 @@
         <v>63</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G27" s="1">
         <v>115</v>
@@ -3142,10 +3142,10 @@
         <v>63</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G28" s="1">
         <v>115</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>94</v>
@@ -3169,7 +3169,7 @@
         <v>63</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>58</v>
@@ -3196,7 +3196,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>58</v>
@@ -3223,7 +3223,7 @@
         <v>63</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>58</v>
@@ -3250,10 +3250,10 @@
         <v>63</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G32" s="1">
         <v>130</v>
@@ -3277,10 +3277,10 @@
         <v>63</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G33" s="1">
         <v>105</v>
@@ -3304,7 +3304,7 @@
         <v>63</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>59</v>
@@ -3331,7 +3331,7 @@
         <v>63</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F35" t="s">
         <v>59</v>
@@ -3358,7 +3358,7 @@
         <v>63</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F36" t="s">
         <v>127</v>
@@ -3385,7 +3385,7 @@
         <v>63</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>59</v>
@@ -3412,7 +3412,7 @@
         <v>63</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>60</v>
@@ -3439,7 +3439,7 @@
         <v>63</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>60</v>
@@ -3466,7 +3466,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>60</v>
@@ -3493,7 +3493,7 @@
         <v>63</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>60</v>
@@ -3520,7 +3520,7 @@
         <v>63</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>59</v>
@@ -3547,7 +3547,7 @@
         <v>63</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>61</v>
@@ -3574,7 +3574,7 @@
         <v>63</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>61</v>
@@ -3601,7 +3601,7 @@
         <v>63</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>62</v>
@@ -3628,7 +3628,7 @@
         <v>63</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>62</v>
@@ -3655,7 +3655,7 @@
         <v>63</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>62</v>
@@ -3682,7 +3682,7 @@
         <v>63</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>62</v>
@@ -3709,7 +3709,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>151</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>94</v>
@@ -3763,10 +3763,10 @@
         <v>63</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G51" s="1">
         <v>80</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>94</v>
@@ -3790,10 +3790,10 @@
         <v>63</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G52" s="1">
         <v>75</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>94</v>
@@ -3817,7 +3817,7 @@
         <v>63</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>127</v>
@@ -3831,19 +3831,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>60</v>
@@ -3866,7 +3866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
@@ -4322,7 +4322,7 @@
         <v>96</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D21" s="30">
         <v>20</v>
@@ -4469,13 +4469,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="30">
         <v>10</v>
@@ -4490,13 +4490,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D29" s="30">
         <v>10</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D30" s="30">
         <v>60</v>
@@ -4532,13 +4532,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D31" s="30">
         <v>0</v>
@@ -4553,13 +4553,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D32" s="30">
         <v>10</v>
@@ -4574,13 +4574,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D33" s="30">
         <v>10</v>
@@ -4595,13 +4595,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D34" s="30">
         <v>5</v>
@@ -4616,13 +4616,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D35" s="30">
         <v>10</v>
@@ -4637,13 +4637,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="30" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D36" s="30">
         <v>10</v>
@@ -4658,13 +4658,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D37" s="30">
         <v>10</v>
@@ -4679,13 +4679,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D38" s="30">
         <v>0</v>
@@ -4700,13 +4700,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D39" s="30">
         <v>0</v>
@@ -4721,13 +4721,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D40" s="30">
         <v>0</v>
@@ -4742,13 +4742,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D41" s="30">
         <v>10</v>
@@ -4763,13 +4763,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D42" s="30">
         <v>10</v>
@@ -20162,9 +20162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -20190,10 +20190,10 @@
         <v>160</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -20201,10 +20201,10 @@
         <v>159</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -20213,10 +20213,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D4" s="14"/>
     </row>
@@ -20225,87 +20225,87 @@
         <v>92</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>331</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60">
       <c r="A8" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105">
       <c r="A9" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="120">
       <c r="A10" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="75">
       <c r="A11" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
       <c r="A12" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60">
@@ -20313,98 +20313,98 @@
         <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30">
       <c r="A16" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="90">
       <c r="A17" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="75">
       <c r="A18" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45">
       <c r="A20" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="105">
       <c r="A21" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -20412,7 +20412,7 @@
         <v>129</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>131</v>
@@ -20423,7 +20423,7 @@
         <v>132</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>130</v>
@@ -20434,7 +20434,7 @@
         <v>133</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>134</v>
@@ -20445,7 +20445,7 @@
         <v>135</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>136</v>
@@ -20456,7 +20456,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>137</v>
@@ -20536,7 +20536,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>259</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -21029,7 +21029,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -21113,7 +21113,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
@@ -21631,10 +21631,10 @@
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>9</v>
@@ -21642,7 +21642,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>153</v>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>140</v>
@@ -21664,7 +21664,7 @@
     </row>
     <row r="5" spans="1:3" ht="29.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>128</v>
@@ -21675,10 +21675,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>9</v>
@@ -21686,7 +21686,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>142</v>
@@ -21697,10 +21697,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>9</v>
@@ -21708,10 +21708,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>9</v>
@@ -21719,7 +21719,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>141</v>
@@ -21730,10 +21730,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>9</v>
@@ -21741,10 +21741,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>9</v>
@@ -21752,10 +21752,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>9</v>
@@ -21763,10 +21763,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>9</v>
@@ -21774,7 +21774,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>140</v>
@@ -21849,13 +21849,13 @@
     </row>
     <row r="3" spans="1:4" ht="25.5">
       <c r="A3" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>154</v>
@@ -21863,7 +21863,7 @@
     </row>
     <row r="4" spans="1:4" ht="38.25">
       <c r="A4" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>53</v>

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$D$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hero_constraints!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">keywords!$A$1:$C$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$I$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">models!$A$1:$I$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">options!$A$1:$I$1578</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">warning_rules!$A$1:$D$1</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="878">
   <si>
     <t>model_id</t>
   </si>
@@ -3262,7 +3262,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3309,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3356,7 +3356,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3702,7 +3702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3710,11 +3710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:A41"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -4168,9 +4168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>660</v>
+        <v>267</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>82</v>
@@ -4182,10 +4182,10 @@
         <v>59</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>656</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>657</v>
+        <v>224</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4194,10 +4194,14 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
-        <v>661</v>
+        <v>268</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>82</v>
@@ -4209,10 +4213,10 @@
         <v>59</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>659</v>
+        <v>225</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>658</v>
+        <v>326</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4222,378 +4226,378 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>344</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="G19" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>478</v>
+        <v>270</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>328</v>
       </c>
       <c r="G20" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="G21" s="1">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="H21" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="G22" s="1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="H22" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>55</v>
+        <v>331</v>
       </c>
       <c r="G23" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
       <c r="G24" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H24" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>482</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="G25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H25" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>56</v>
+        <v>334</v>
       </c>
       <c r="G26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="G27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="G28" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H28" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="G29" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H29" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="G30" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H30" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>353</v>
+        <v>654</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>364</v>
+        <v>655</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>56</v>
+        <v>655</v>
       </c>
       <c r="G31" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H31" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>354</v>
+        <v>660</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>365</v>
+        <v>656</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>56</v>
+        <v>657</v>
       </c>
       <c r="G32" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H32" s="7" t="b">
         <f>FALSE()</f>
@@ -4602,25 +4606,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7" t="s">
-        <v>355</v>
+        <v>661</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>366</v>
+        <v>659</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>658</v>
       </c>
       <c r="G33" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H33" s="7" t="b">
         <f>FALSE()</f>
@@ -4629,7 +4633,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>82</v>
@@ -4641,13 +4645,13 @@
         <v>59</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H34" s="7" t="b">
         <f>FALSE()</f>
@@ -4656,7 +4660,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>82</v>
@@ -4668,13 +4672,13 @@
         <v>59</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H35" s="7" t="b">
         <f>FALSE()</f>
@@ -4683,7 +4687,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>82</v>
@@ -4695,13 +4699,13 @@
         <v>59</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>369</v>
+        <v>213</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" s="1">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H36" s="7" t="b">
         <f>FALSE()</f>
@@ -4710,7 +4714,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>82</v>
@@ -4722,13 +4726,13 @@
         <v>59</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="1">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="H37" s="7" t="b">
         <f>FALSE()</f>
@@ -4737,7 +4741,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>82</v>
@@ -4749,13 +4753,13 @@
         <v>59</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" s="1">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="H38" s="7" t="b">
         <f>FALSE()</f>
@@ -4764,7 +4768,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>82</v>
@@ -4776,13 +4780,13 @@
         <v>59</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7" t="b">
         <f>FALSE()</f>
@@ -4791,7 +4795,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>82</v>
@@ -4803,13 +4807,13 @@
         <v>59</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G40" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H40" s="7" t="b">
         <f>FALSE()</f>
@@ -4818,7 +4822,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="7" t="s">
-        <v>480</v>
+        <v>346</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>82</v>
@@ -4830,13 +4834,13 @@
         <v>59</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>481</v>
+        <v>215</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G41" s="1">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H41" s="7" t="b">
         <f>FALSE()</f>
@@ -4845,7 +4849,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>82</v>
@@ -4857,13 +4861,13 @@
         <v>59</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G42" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H42" s="7" t="b">
         <f>FALSE()</f>
@@ -4872,7 +4876,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>82</v>
@@ -4884,13 +4888,13 @@
         <v>59</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G43" s="1">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7" t="b">
         <f>FALSE()</f>
@@ -4899,7 +4903,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>82</v>
@@ -4911,13 +4915,13 @@
         <v>59</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G44" s="1">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H44" s="7" t="b">
         <f>FALSE()</f>
@@ -4926,7 +4930,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>82</v>
@@ -4938,13 +4942,13 @@
         <v>59</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G45" s="1">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="H45" s="7" t="b">
         <f>FALSE()</f>
@@ -4953,7 +4957,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>82</v>
@@ -4965,13 +4969,13 @@
         <v>59</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G46" s="1">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="H46" s="7" t="b">
         <f>FALSE()</f>
@@ -4980,7 +4984,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>82</v>
@@ -4992,13 +4996,13 @@
         <v>59</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>386</v>
+        <v>56</v>
       </c>
       <c r="G47" s="1">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H47" s="7" t="b">
         <f>FALSE()</f>
@@ -5007,7 +5011,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>82</v>
@@ -5019,13 +5023,13 @@
         <v>59</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>242</v>
+        <v>366</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>386</v>
+        <v>56</v>
       </c>
       <c r="G48" s="1">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="H48" s="7" t="b">
         <f>FALSE()</f>
@@ -5034,7 +5038,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>82</v>
@@ -5046,13 +5050,13 @@
         <v>59</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>386</v>
+        <v>56</v>
       </c>
       <c r="G49" s="1">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H49" s="7" t="b">
         <f>FALSE()</f>
@@ -5061,7 +5065,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>82</v>
@@ -5073,13 +5077,13 @@
         <v>59</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>388</v>
+        <v>56</v>
       </c>
       <c r="G50" s="1">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="H50" s="7" t="b">
         <f>FALSE()</f>
@@ -5088,7 +5092,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>82</v>
@@ -5099,14 +5103,14 @@
       <c r="D51" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="34" t="s">
-        <v>218</v>
+      <c r="E51" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>388</v>
+        <v>56</v>
       </c>
       <c r="G51" s="1">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="H51" s="7" t="b">
         <f>FALSE()</f>
@@ -5115,7 +5119,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>82</v>
@@ -5127,13 +5131,13 @@
         <v>59</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>219</v>
+        <v>370</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>388</v>
+        <v>56</v>
       </c>
       <c r="G52" s="1">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="H52" s="7" t="b">
         <f>FALSE()</f>
@@ -5142,7 +5146,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>82</v>
@@ -5153,14 +5157,14 @@
       <c r="D53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>223</v>
+      <c r="E53" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G53" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H53" s="7" t="b">
         <f>FALSE()</f>
@@ -5169,7 +5173,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>82</v>
@@ -5181,10 +5185,10 @@
         <v>59</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>247</v>
+        <v>372</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G54" s="1">
         <v>100</v>
@@ -5196,7 +5200,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>82</v>
@@ -5208,13 +5212,13 @@
         <v>59</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G55" s="1">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H55" s="7" t="b">
         <f>FALSE()</f>
@@ -5223,7 +5227,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>82</v>
@@ -5235,13 +5239,13 @@
         <v>59</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>249</v>
+        <v>481</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G56" s="1">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="H56" s="7" t="b">
         <f>FALSE()</f>
@@ -5250,7 +5254,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>82</v>
@@ -5262,13 +5266,13 @@
         <v>59</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G57" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H57" s="7" t="b">
         <f>FALSE()</f>
@@ -5277,7 +5281,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>82</v>
@@ -5289,13 +5293,13 @@
         <v>59</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G58" s="1">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H58" s="7" t="b">
         <f>FALSE()</f>
@@ -5304,7 +5308,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>82</v>
@@ -5315,14 +5319,14 @@
       <c r="D59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>246</v>
+      <c r="E59" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G59" s="1">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H59" s="7" t="b">
         <f>FALSE()</f>
@@ -5330,8 +5334,8 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="34" t="s">
-        <v>404</v>
+      <c r="A60" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>82</v>
@@ -5342,14 +5346,14 @@
       <c r="D60" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="34" t="s">
-        <v>260</v>
+      <c r="E60" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G60" s="1">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="H60" s="7" t="b">
         <f>FALSE()</f>
@@ -5357,8 +5361,8 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="34" t="s">
-        <v>405</v>
+      <c r="A61" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>82</v>
@@ -5369,14 +5373,14 @@
       <c r="D61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="34" t="s">
-        <v>261</v>
+      <c r="E61" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G61" s="1">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H61" s="7" t="b">
         <f>FALSE()</f>
@@ -5384,8 +5388,8 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="34" t="s">
-        <v>406</v>
+      <c r="A62" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>82</v>
@@ -5396,14 +5400,14 @@
       <c r="D62" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="34" t="s">
-        <v>408</v>
+      <c r="E62" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G62" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H62" s="7" t="b">
         <f>FALSE()</f>
@@ -5411,8 +5415,8 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="34" t="s">
-        <v>407</v>
+      <c r="A63" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>82</v>
@@ -5423,14 +5427,14 @@
       <c r="D63" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="34" t="s">
-        <v>409</v>
+      <c r="E63" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G63" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H63" s="7" t="b">
         <f>FALSE()</f>
@@ -5438,8 +5442,8 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="34" t="s">
-        <v>391</v>
+      <c r="A64" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>82</v>
@@ -5450,14 +5454,14 @@
       <c r="D64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="F64" t="s">
-        <v>389</v>
+      <c r="E64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="G64" s="1">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="H64" s="7" t="b">
         <f>FALSE()</f>
@@ -5466,7 +5470,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="7" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>82</v>
@@ -5477,14 +5481,14 @@
       <c r="D65" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="F65" t="s">
-        <v>389</v>
+      <c r="E65" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="G65" s="1">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="H65" s="7" t="b">
         <f>FALSE()</f>
@@ -5493,7 +5497,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>82</v>
@@ -5505,13 +5509,13 @@
         <v>59</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="F66" t="s">
-        <v>389</v>
+        <v>218</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="G66" s="1">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H66" s="7" t="b">
         <f>FALSE()</f>
@@ -5520,7 +5524,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>82</v>
@@ -5532,21 +5536,22 @@
         <v>59</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F67" t="s">
-        <v>389</v>
+        <v>219</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="G67" s="1">
-        <v>340</v>
-      </c>
-      <c r="H67" t="b">
+        <v>200</v>
+      </c>
+      <c r="H67" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>82</v>
@@ -5557,14 +5562,14 @@
       <c r="D68" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>252</v>
+      <c r="E68" s="34" t="s">
+        <v>223</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G68" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H68" s="7" t="b">
         <f>FALSE()</f>
@@ -5573,7 +5578,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>82</v>
@@ -5585,13 +5590,13 @@
         <v>59</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G69" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H69" s="7" t="b">
         <f>FALSE()</f>
@@ -5600,7 +5605,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>82</v>
@@ -5612,13 +5617,13 @@
         <v>59</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>414</v>
+        <v>248</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G70" s="1">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H70" s="7" t="b">
         <f>FALSE()</f>
@@ -5627,7 +5632,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>82</v>
@@ -5639,13 +5644,13 @@
         <v>59</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>420</v>
+        <v>57</v>
       </c>
       <c r="G71" s="1">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="H71" s="7" t="b">
         <f>FALSE()</f>
@@ -5654,7 +5659,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>82</v>
@@ -5666,13 +5671,13 @@
         <v>59</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G72" s="1">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="H72" s="7" t="b">
         <f>FALSE()</f>
@@ -5681,7 +5686,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>82</v>
@@ -5693,13 +5698,13 @@
         <v>59</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>254</v>
+        <v>403</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G73" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H73" s="7" t="b">
         <f>FALSE()</f>
@@ -5708,7 +5713,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>82</v>
@@ -5719,14 +5724,14 @@
       <c r="D74" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>426</v>
+      <c r="E74" s="34" t="s">
+        <v>246</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G74" s="1">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="H74" s="7" t="b">
         <f>FALSE()</f>
@@ -5734,8 +5739,8 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7" t="s">
-        <v>425</v>
+      <c r="A75" s="34" t="s">
+        <v>404</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>82</v>
@@ -5746,14 +5751,14 @@
       <c r="D75" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>427</v>
+      <c r="E75" s="34" t="s">
+        <v>260</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G75" s="1">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="H75" s="7" t="b">
         <f>FALSE()</f>
@@ -5761,8 +5766,8 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="7" t="s">
-        <v>430</v>
+      <c r="A76" s="34" t="s">
+        <v>405</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>82</v>
@@ -5773,14 +5778,14 @@
       <c r="D76" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>251</v>
+      <c r="E76" s="34" t="s">
+        <v>261</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="G76" s="1">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H76" s="7" t="b">
         <f>FALSE()</f>
@@ -5788,8 +5793,8 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7" t="s">
-        <v>434</v>
+      <c r="A77" s="34" t="s">
+        <v>406</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>82</v>
@@ -5800,14 +5805,14 @@
       <c r="D77" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>436</v>
+      <c r="E77" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="G77" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H77" s="7" t="b">
         <f>FALSE()</f>
@@ -5815,8 +5820,8 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="7" t="s">
-        <v>435</v>
+      <c r="A78" s="34" t="s">
+        <v>407</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>82</v>
@@ -5827,14 +5832,14 @@
       <c r="D78" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>437</v>
+      <c r="E78" s="34" t="s">
+        <v>409</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="G78" s="1">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H78" s="7" t="b">
         <f>FALSE()</f>
@@ -5842,8 +5847,8 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7" t="s">
-        <v>438</v>
+      <c r="A79" s="34" t="s">
+        <v>391</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>82</v>
@@ -5854,14 +5859,14 @@
       <c r="D79" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>428</v>
+      <c r="E79" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" t="s">
+        <v>389</v>
       </c>
       <c r="G79" s="1">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H79" s="7" t="b">
         <f>FALSE()</f>
@@ -5870,7 +5875,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>82</v>
@@ -5881,14 +5886,14 @@
       <c r="D80" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>428</v>
+      <c r="E80" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="F80" t="s">
+        <v>389</v>
       </c>
       <c r="G80" s="1">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="H80" s="7" t="b">
         <f>FALSE()</f>
@@ -5897,7 +5902,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>82</v>
@@ -5908,14 +5913,14 @@
       <c r="D81" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>429</v>
+      <c r="E81" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="F81" t="s">
+        <v>389</v>
       </c>
       <c r="G81" s="1">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="H81" s="7" t="b">
         <f>FALSE()</f>
@@ -5924,7 +5929,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>82</v>
@@ -5936,22 +5941,21 @@
         <v>59</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>429</v>
+        <v>281</v>
+      </c>
+      <c r="F82" t="s">
+        <v>389</v>
       </c>
       <c r="G82" s="1">
-        <v>200</v>
-      </c>
-      <c r="H82" s="7" t="b">
-        <f>FALSE()</f>
+        <v>340</v>
+      </c>
+      <c r="H82" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>82</v>
@@ -5963,13 +5967,13 @@
         <v>59</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>445</v>
+        <v>252</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="G83" s="1">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="H83" s="7" t="b">
         <f>FALSE()</f>
@@ -5978,7 +5982,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>82</v>
@@ -5990,13 +5994,13 @@
         <v>59</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>433</v>
+        <v>253</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="G84" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H84" s="7" t="b">
         <f>FALSE()</f>
@@ -6005,7 +6009,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>82</v>
@@ -6017,13 +6021,13 @@
         <v>59</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="G85" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H85" s="7" t="b">
         <f>FALSE()</f>
@@ -6032,7 +6036,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>82</v>
@@ -6044,13 +6048,13 @@
         <v>59</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G86" s="1">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="H86" s="7" t="b">
         <f>FALSE()</f>
@@ -6059,7 +6063,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>82</v>
@@ -6071,13 +6075,13 @@
         <v>59</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G87" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H87" s="7" t="b">
         <f>FALSE()</f>
@@ -6086,7 +6090,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>82</v>
@@ -6098,13 +6102,13 @@
         <v>59</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>455</v>
+        <v>254</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G88" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H88" s="7" t="b">
         <f>FALSE()</f>
@@ -6113,7 +6117,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>82</v>
@@ -6125,13 +6129,13 @@
         <v>59</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G89" s="1">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="H89" s="7" t="b">
         <f>FALSE()</f>
@@ -6140,7 +6144,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>82</v>
@@ -6152,13 +6156,13 @@
         <v>59</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G90" s="1">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="H90" s="7" t="b">
         <f>FALSE()</f>
@@ -6167,7 +6171,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="7" t="s">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>82</v>
@@ -6179,13 +6183,13 @@
         <v>59</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>458</v>
+        <v>251</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G91" s="1">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H91" s="7" t="b">
         <f>FALSE()</f>
@@ -6194,7 +6198,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7" t="s">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>82</v>
@@ -6206,13 +6210,13 @@
         <v>59</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G92" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H92" s="7" t="b">
         <f>FALSE()</f>
@@ -6221,7 +6225,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="7" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>82</v>
@@ -6233,13 +6237,13 @@
         <v>59</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G93" s="1">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="H93" s="7" t="b">
         <f>FALSE()</f>
@@ -6248,7 +6252,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>82</v>
@@ -6260,13 +6264,13 @@
         <v>59</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G94" s="1">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="H94" s="7" t="b">
         <f>FALSE()</f>
@@ -6275,7 +6279,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="7" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>82</v>
@@ -6287,13 +6291,13 @@
         <v>59</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="G95" s="1">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="H95" s="7" t="b">
         <f>FALSE()</f>
@@ -6302,7 +6306,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="7" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>82</v>
@@ -6314,13 +6318,13 @@
         <v>59</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G96" s="1">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="H96" s="7" t="b">
         <f>FALSE()</f>
@@ -6329,7 +6333,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="7" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>82</v>
@@ -6341,13 +6345,13 @@
         <v>59</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G97" s="1">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="H97" s="7" t="b">
         <f>FALSE()</f>
@@ -6356,7 +6360,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>82</v>
@@ -6368,13 +6372,13 @@
         <v>59</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G98" s="1">
-        <v>650</v>
+        <v>220</v>
       </c>
       <c r="H98" s="7" t="b">
         <f>FALSE()</f>
@@ -6383,7 +6387,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="7" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>82</v>
@@ -6395,13 +6399,13 @@
         <v>59</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G99" s="1">
-        <v>650</v>
+        <v>95</v>
       </c>
       <c r="H99" s="7" t="b">
         <f>FALSE()</f>
@@ -6410,7 +6414,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="7" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>82</v>
@@ -6422,13 +6426,13 @@
         <v>59</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G100" s="1">
-        <v>685</v>
+        <v>75</v>
       </c>
       <c r="H100" s="7" t="b">
         <f>FALSE()</f>
@@ -6437,7 +6441,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>82</v>
@@ -6449,13 +6453,13 @@
         <v>59</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G101" s="1">
-        <v>850</v>
+        <v>50</v>
       </c>
       <c r="H101" s="7" t="b">
         <f>FALSE()</f>
@@ -6464,7 +6468,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>82</v>
@@ -6476,13 +6480,13 @@
         <v>59</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="G102" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H102" s="7" t="b">
         <f>FALSE()</f>
@@ -6491,7 +6495,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>82</v>
@@ -6502,14 +6506,14 @@
       <c r="D103" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E103" s="34" t="s">
-        <v>243</v>
+      <c r="E103" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="G103" s="1">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H103" s="7" t="b">
         <f>FALSE()</f>
@@ -6518,7 +6522,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>82</v>
@@ -6529,14 +6533,14 @@
       <c r="D104" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E104" s="34" t="s">
-        <v>244</v>
+      <c r="E104" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="G104" s="1">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="H104" s="7" t="b">
         <f>FALSE()</f>
@@ -6545,25 +6549,25 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="7" t="s">
-        <v>567</v>
+        <v>489</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>344</v>
+        <v>457</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="G105" s="1">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="H105" s="7" t="b">
         <f>FALSE()</f>
@@ -6572,22 +6576,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="7" t="s">
-        <v>568</v>
+        <v>488</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="G106" s="1">
         <v>140</v>
@@ -6599,25 +6603,25 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="7" t="s">
-        <v>569</v>
+        <v>487</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>213</v>
+        <v>459</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="G107" s="1">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H107" s="7" t="b">
         <f>FALSE()</f>
@@ -6626,25 +6630,25 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="7" t="s">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>214</v>
+        <v>460</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="G108" s="1">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H108" s="7" t="b">
         <f>FALSE()</f>
@@ -6653,25 +6657,25 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="7" t="s">
-        <v>571</v>
+        <v>485</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>202</v>
+        <v>484</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="G109" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H109" s="7" t="b">
         <f>FALSE()</f>
@@ -6680,25 +6684,25 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>350</v>
+        <v>461</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="G110" s="1">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="H110" s="7" t="b">
         <f>FALSE()</f>
@@ -6707,25 +6711,25 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="7" t="s">
-        <v>573</v>
+        <v>472</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="G111" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H111" s="7" t="b">
         <f>FALSE()</f>
@@ -6734,25 +6738,25 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7" t="s">
-        <v>574</v>
+        <v>471</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>215</v>
+        <v>463</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="G112" s="1">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="H112" s="7" t="b">
         <f>FALSE()</f>
@@ -6761,25 +6765,25 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="7" t="s">
-        <v>575</v>
+        <v>470</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>216</v>
+        <v>464</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="G113" s="1">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="H113" s="7" t="b">
         <f>FALSE()</f>
@@ -6788,25 +6792,25 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="7" t="s">
-        <v>576</v>
+        <v>474</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>351</v>
+        <v>465</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="G114" s="1">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="H114" s="7" t="b">
         <f>FALSE()</f>
@@ -6815,25 +6819,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="7" t="s">
-        <v>577</v>
+        <v>475</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>240</v>
+        <v>466</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="G115" s="1">
-        <v>120</v>
+        <v>685</v>
       </c>
       <c r="H115" s="7" t="b">
         <f>FALSE()</f>
@@ -6842,25 +6846,25 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7" t="s">
-        <v>578</v>
+        <v>476</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>363</v>
+        <v>467</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="G116" s="1">
-        <v>85</v>
+        <v>850</v>
       </c>
       <c r="H116" s="7" t="b">
         <f>FALSE()</f>
@@ -6869,25 +6873,25 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="7" t="s">
-        <v>579</v>
+        <v>477</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>364</v>
+        <v>468</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>56</v>
+        <v>469</v>
       </c>
       <c r="G117" s="1">
-        <v>105</v>
+        <v>600</v>
       </c>
       <c r="H117" s="7" t="b">
         <f>FALSE()</f>
@@ -6896,25 +6900,25 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="7" t="s">
-        <v>580</v>
+        <v>497</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>365</v>
+      <c r="E118" s="34" t="s">
+        <v>243</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>56</v>
+        <v>386</v>
       </c>
       <c r="G118" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H118" s="7" t="b">
         <f>FALSE()</f>
@@ -6923,25 +6927,25 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="7" t="s">
-        <v>581</v>
+        <v>498</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>366</v>
+      <c r="E119" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>56</v>
+        <v>386</v>
       </c>
       <c r="G119" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H119" s="7" t="b">
         <f>FALSE()</f>
@@ -6950,7 +6954,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="7" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>82</v>
@@ -6962,13 +6966,13 @@
         <v>59</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G120" s="1">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H120" s="7" t="b">
         <f>FALSE()</f>
@@ -6977,7 +6981,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="7" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>82</v>
@@ -6989,13 +6993,13 @@
         <v>59</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G121" s="1">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H121" s="7" t="b">
         <f>FALSE()</f>
@@ -7004,7 +7008,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>82</v>
@@ -7016,13 +7020,13 @@
         <v>59</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>369</v>
+        <v>213</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G122" s="1">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H122" s="7" t="b">
         <f>FALSE()</f>
@@ -7031,7 +7035,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>82</v>
@@ -7043,13 +7047,13 @@
         <v>59</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G123" s="1">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="H123" s="7" t="b">
         <f>FALSE()</f>
@@ -7058,7 +7062,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>82</v>
@@ -7070,13 +7074,13 @@
         <v>59</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G124" s="1">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="H124" s="7" t="b">
         <f>FALSE()</f>
@@ -7085,7 +7089,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>82</v>
@@ -7097,13 +7101,13 @@
         <v>59</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G125" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H125" s="7" t="b">
         <f>FALSE()</f>
@@ -7112,7 +7116,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>82</v>
@@ -7124,13 +7128,13 @@
         <v>59</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G126" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H126" s="7" t="b">
         <f>FALSE()</f>
@@ -7139,7 +7143,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>82</v>
@@ -7151,13 +7155,13 @@
         <v>59</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>481</v>
+        <v>215</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G127" s="1">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H127" s="7" t="b">
         <f>FALSE()</f>
@@ -7166,7 +7170,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>82</v>
@@ -7178,13 +7182,13 @@
         <v>59</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G128" s="1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H128" s="7" t="b">
         <f>FALSE()</f>
@@ -7193,7 +7197,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>82</v>
@@ -7205,13 +7209,13 @@
         <v>59</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G129" s="1">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="H129" s="7" t="b">
         <f>FALSE()</f>
@@ -7220,7 +7224,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>82</v>
@@ -7232,13 +7236,13 @@
         <v>59</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G130" s="1">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H130" s="7" t="b">
         <f>FALSE()</f>
@@ -7247,7 +7251,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>82</v>
@@ -7259,13 +7263,13 @@
         <v>59</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G131" s="1">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="H131" s="7" t="b">
         <f>FALSE()</f>
@@ -7274,7 +7278,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>82</v>
@@ -7286,13 +7290,13 @@
         <v>59</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="G132" s="1">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="H132" s="7" t="b">
         <f>FALSE()</f>
@@ -7301,7 +7305,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>82</v>
@@ -7313,13 +7317,13 @@
         <v>59</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>386</v>
+        <v>56</v>
       </c>
       <c r="G133" s="1">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H133" s="7" t="b">
         <f>FALSE()</f>
@@ -7328,7 +7332,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="7" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>82</v>
@@ -7340,13 +7344,13 @@
         <v>59</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>242</v>
+        <v>366</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>386</v>
+        <v>56</v>
       </c>
       <c r="G134" s="1">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="H134" s="7" t="b">
         <f>FALSE()</f>
@@ -7355,7 +7359,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="7" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>82</v>
@@ -7367,13 +7371,13 @@
         <v>59</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>386</v>
+        <v>56</v>
       </c>
       <c r="G135" s="1">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H135" s="7" t="b">
         <f>FALSE()</f>
@@ -7382,7 +7386,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>82</v>
@@ -7394,13 +7398,13 @@
         <v>59</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>388</v>
+        <v>56</v>
       </c>
       <c r="G136" s="1">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="H136" s="7" t="b">
         <f>FALSE()</f>
@@ -7409,7 +7413,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>82</v>
@@ -7420,14 +7424,14 @@
       <c r="D137" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E137" s="34" t="s">
-        <v>218</v>
+      <c r="E137" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>388</v>
+        <v>56</v>
       </c>
       <c r="G137" s="1">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="H137" s="7" t="b">
         <f>FALSE()</f>
@@ -7436,7 +7440,7 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>82</v>
@@ -7448,13 +7452,13 @@
         <v>59</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>219</v>
+        <v>370</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>388</v>
+        <v>56</v>
       </c>
       <c r="G138" s="1">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="H138" s="7" t="b">
         <f>FALSE()</f>
@@ -7463,7 +7467,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>82</v>
@@ -7474,14 +7478,14 @@
       <c r="D139" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E139" s="34" t="s">
-        <v>223</v>
+      <c r="E139" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G139" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H139" s="7" t="b">
         <f>FALSE()</f>
@@ -7490,7 +7494,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>82</v>
@@ -7502,10 +7506,10 @@
         <v>59</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>247</v>
+        <v>372</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G140" s="1">
         <v>100</v>
@@ -7517,7 +7521,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>82</v>
@@ -7529,13 +7533,13 @@
         <v>59</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G141" s="1">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H141" s="7" t="b">
         <f>FALSE()</f>
@@ -7544,7 +7548,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>82</v>
@@ -7556,13 +7560,13 @@
         <v>59</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>249</v>
+        <v>481</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G142" s="1">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="H142" s="7" t="b">
         <f>FALSE()</f>
@@ -7571,7 +7575,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>82</v>
@@ -7583,13 +7587,13 @@
         <v>59</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G143" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="H143" s="7" t="b">
         <f>FALSE()</f>
@@ -7598,7 +7602,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>82</v>
@@ -7610,13 +7614,13 @@
         <v>59</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G144" s="1">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H144" s="7" t="b">
         <f>FALSE()</f>
@@ -7625,7 +7629,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>82</v>
@@ -7636,14 +7640,14 @@
       <c r="D145" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E145" s="34" t="s">
-        <v>246</v>
+      <c r="E145" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G145" s="1">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H145" s="7" t="b">
         <f>FALSE()</f>
@@ -7651,8 +7655,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="34" t="s">
-        <v>608</v>
+      <c r="A146" s="7" t="s">
+        <v>593</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>82</v>
@@ -7663,14 +7667,14 @@
       <c r="D146" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E146" s="34" t="s">
-        <v>260</v>
+      <c r="E146" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G146" s="1">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="H146" s="7" t="b">
         <f>FALSE()</f>
@@ -7678,8 +7682,8 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="34" t="s">
-        <v>609</v>
+      <c r="A147" s="7" t="s">
+        <v>594</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>82</v>
@@ -7690,14 +7694,14 @@
       <c r="D147" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E147" s="34" t="s">
-        <v>261</v>
+      <c r="E147" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G147" s="1">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H147" s="7" t="b">
         <f>FALSE()</f>
@@ -7705,8 +7709,8 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="34" t="s">
-        <v>610</v>
+      <c r="A148" s="7" t="s">
+        <v>595</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>82</v>
@@ -7717,14 +7721,14 @@
       <c r="D148" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E148" s="34" t="s">
-        <v>408</v>
+      <c r="E148" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G148" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H148" s="7" t="b">
         <f>FALSE()</f>
@@ -7732,8 +7736,8 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="34" t="s">
-        <v>611</v>
+      <c r="A149" s="7" t="s">
+        <v>596</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>82</v>
@@ -7744,14 +7748,14 @@
       <c r="D149" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E149" s="34" t="s">
-        <v>409</v>
+      <c r="E149" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G149" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H149" s="7" t="b">
         <f>FALSE()</f>
@@ -7759,8 +7763,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="34" t="s">
-        <v>612</v>
+      <c r="A150" s="7" t="s">
+        <v>597</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>82</v>
@@ -7771,14 +7775,14 @@
       <c r="D150" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E150" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="F150" t="s">
-        <v>389</v>
+      <c r="E150" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="G150" s="1">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="H150" s="7" t="b">
         <f>FALSE()</f>
@@ -7787,7 +7791,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>82</v>
@@ -7798,14 +7802,14 @@
       <c r="D151" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E151" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="F151" t="s">
-        <v>389</v>
+      <c r="E151" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="G151" s="1">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="H151" s="7" t="b">
         <f>FALSE()</f>
@@ -7814,7 +7818,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>82</v>
@@ -7826,13 +7830,13 @@
         <v>59</v>
       </c>
       <c r="E152" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="F152" t="s">
-        <v>389</v>
+        <v>218</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="G152" s="1">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H152" s="7" t="b">
         <f>FALSE()</f>
@@ -7841,7 +7845,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>82</v>
@@ -7853,21 +7857,22 @@
         <v>59</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F153" t="s">
-        <v>389</v>
+        <v>219</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="G153" s="1">
-        <v>340</v>
-      </c>
-      <c r="H153" t="b">
+        <v>200</v>
+      </c>
+      <c r="H153" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="7" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>82</v>
@@ -7878,14 +7883,14 @@
       <c r="D154" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E154" s="7" t="s">
-        <v>252</v>
+      <c r="E154" s="34" t="s">
+        <v>223</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G154" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H154" s="7" t="b">
         <f>FALSE()</f>
@@ -7894,7 +7899,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>82</v>
@@ -7906,13 +7911,13 @@
         <v>59</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G155" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H155" s="7" t="b">
         <f>FALSE()</f>
@@ -7921,7 +7926,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>82</v>
@@ -7933,13 +7938,13 @@
         <v>59</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>414</v>
+        <v>248</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G156" s="1">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H156" s="7" t="b">
         <f>FALSE()</f>
@@ -7948,7 +7953,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>82</v>
@@ -7960,13 +7965,13 @@
         <v>59</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>419</v>
+        <v>249</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>420</v>
+        <v>57</v>
       </c>
       <c r="G157" s="1">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="H157" s="7" t="b">
         <f>FALSE()</f>
@@ -7975,7 +7980,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>82</v>
@@ -7987,13 +7992,13 @@
         <v>59</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>421</v>
+        <v>250</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G158" s="1">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="H158" s="7" t="b">
         <f>FALSE()</f>
@@ -8002,7 +8007,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>82</v>
@@ -8014,13 +8019,13 @@
         <v>59</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>254</v>
+        <v>403</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G159" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H159" s="7" t="b">
         <f>FALSE()</f>
@@ -8029,7 +8034,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>82</v>
@@ -8040,14 +8045,14 @@
       <c r="D160" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>426</v>
+      <c r="E160" s="34" t="s">
+        <v>246</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G160" s="1">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="H160" s="7" t="b">
         <f>FALSE()</f>
@@ -8055,8 +8060,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="7" t="s">
-        <v>623</v>
+      <c r="A161" s="34" t="s">
+        <v>608</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>82</v>
@@ -8067,14 +8072,14 @@
       <c r="D161" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>427</v>
+      <c r="E161" s="34" t="s">
+        <v>260</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G161" s="1">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="H161" s="7" t="b">
         <f>FALSE()</f>
@@ -8082,8 +8087,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="7" t="s">
-        <v>624</v>
+      <c r="A162" s="34" t="s">
+        <v>609</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>82</v>
@@ -8094,14 +8099,14 @@
       <c r="D162" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E162" s="7" t="s">
-        <v>251</v>
+      <c r="E162" s="34" t="s">
+        <v>261</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="G162" s="1">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H162" s="7" t="b">
         <f>FALSE()</f>
@@ -8109,8 +8114,8 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="7" t="s">
-        <v>625</v>
+      <c r="A163" s="34" t="s">
+        <v>610</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>82</v>
@@ -8121,14 +8126,14 @@
       <c r="D163" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E163" s="7" t="s">
-        <v>436</v>
+      <c r="E163" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="G163" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H163" s="7" t="b">
         <f>FALSE()</f>
@@ -8136,8 +8141,8 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="7" t="s">
-        <v>626</v>
+      <c r="A164" s="34" t="s">
+        <v>611</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>82</v>
@@ -8148,14 +8153,14 @@
       <c r="D164" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E164" s="7" t="s">
-        <v>437</v>
+      <c r="E164" s="34" t="s">
+        <v>409</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="G164" s="1">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H164" s="7" t="b">
         <f>FALSE()</f>
@@ -8163,8 +8168,8 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="7" t="s">
-        <v>627</v>
+      <c r="A165" s="34" t="s">
+        <v>612</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>82</v>
@@ -8175,14 +8180,14 @@
       <c r="D165" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E165" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>428</v>
+      <c r="E165" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="F165" t="s">
+        <v>389</v>
       </c>
       <c r="G165" s="1">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="H165" s="7" t="b">
         <f>FALSE()</f>
@@ -8191,7 +8196,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>82</v>
@@ -8202,14 +8207,14 @@
       <c r="D166" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E166" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>428</v>
+      <c r="E166" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="F166" t="s">
+        <v>389</v>
       </c>
       <c r="G166" s="1">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="H166" s="7" t="b">
         <f>FALSE()</f>
@@ -8218,7 +8223,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>82</v>
@@ -8229,14 +8234,14 @@
       <c r="D167" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E167" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>429</v>
+      <c r="E167" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="F167" t="s">
+        <v>389</v>
       </c>
       <c r="G167" s="1">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="H167" s="7" t="b">
         <f>FALSE()</f>
@@ -8245,7 +8250,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>82</v>
@@ -8257,22 +8262,21 @@
         <v>59</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>429</v>
+        <v>281</v>
+      </c>
+      <c r="F168" t="s">
+        <v>389</v>
       </c>
       <c r="G168" s="1">
-        <v>200</v>
-      </c>
-      <c r="H168" s="7" t="b">
-        <f>FALSE()</f>
+        <v>340</v>
+      </c>
+      <c r="H168" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>82</v>
@@ -8284,13 +8288,13 @@
         <v>59</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>445</v>
+        <v>252</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="G169" s="1">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="H169" s="7" t="b">
         <f>FALSE()</f>
@@ -8299,7 +8303,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>82</v>
@@ -8311,13 +8315,13 @@
         <v>59</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>433</v>
+        <v>253</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="G170" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H170" s="7" t="b">
         <f>FALSE()</f>
@@ -8326,7 +8330,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>82</v>
@@ -8338,13 +8342,13 @@
         <v>59</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>429</v>
+        <v>58</v>
       </c>
       <c r="G171" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H171" s="7" t="b">
         <f>FALSE()</f>
@@ -8353,7 +8357,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>82</v>
@@ -8365,13 +8369,13 @@
         <v>59</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G172" s="1">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="H172" s="7" t="b">
         <f>FALSE()</f>
@@ -8380,7 +8384,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>82</v>
@@ -8392,13 +8396,13 @@
         <v>59</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G173" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H173" s="7" t="b">
         <f>FALSE()</f>
@@ -8407,7 +8411,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>82</v>
@@ -8419,13 +8423,13 @@
         <v>59</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>455</v>
+        <v>254</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G174" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H174" s="7" t="b">
         <f>FALSE()</f>
@@ -8434,7 +8438,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>82</v>
@@ -8446,13 +8450,13 @@
         <v>59</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G175" s="1">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="H175" s="7" t="b">
         <f>FALSE()</f>
@@ -8461,7 +8465,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>82</v>
@@ -8473,13 +8477,13 @@
         <v>59</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="G176" s="1">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="H176" s="7" t="b">
         <f>FALSE()</f>
@@ -8488,7 +8492,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>82</v>
@@ -8500,13 +8504,13 @@
         <v>59</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>458</v>
+        <v>251</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G177" s="1">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H177" s="7" t="b">
         <f>FALSE()</f>
@@ -8515,7 +8519,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>82</v>
@@ -8527,13 +8531,13 @@
         <v>59</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G178" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H178" s="7" t="b">
         <f>FALSE()</f>
@@ -8542,7 +8546,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>82</v>
@@ -8554,13 +8558,13 @@
         <v>59</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G179" s="1">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="H179" s="7" t="b">
         <f>FALSE()</f>
@@ -8569,7 +8573,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>82</v>
@@ -8581,13 +8585,13 @@
         <v>59</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G180" s="1">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="H180" s="7" t="b">
         <f>FALSE()</f>
@@ -8596,7 +8600,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>82</v>
@@ -8608,13 +8612,13 @@
         <v>59</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="G181" s="1">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="H181" s="7" t="b">
         <f>FALSE()</f>
@@ -8623,7 +8627,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>82</v>
@@ -8635,13 +8639,13 @@
         <v>59</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G182" s="1">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="H182" s="7" t="b">
         <f>FALSE()</f>
@@ -8650,7 +8654,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>82</v>
@@ -8662,13 +8666,13 @@
         <v>59</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G183" s="1">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="H183" s="7" t="b">
         <f>FALSE()</f>
@@ -8677,7 +8681,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>82</v>
@@ -8689,13 +8693,13 @@
         <v>59</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G184" s="1">
-        <v>650</v>
+        <v>220</v>
       </c>
       <c r="H184" s="7" t="b">
         <f>FALSE()</f>
@@ -8704,7 +8708,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>82</v>
@@ -8716,13 +8720,13 @@
         <v>59</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G185" s="1">
-        <v>650</v>
+        <v>95</v>
       </c>
       <c r="H185" s="7" t="b">
         <f>FALSE()</f>
@@ -8731,7 +8735,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>82</v>
@@ -8743,13 +8747,13 @@
         <v>59</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G186" s="1">
-        <v>685</v>
+        <v>75</v>
       </c>
       <c r="H186" s="7" t="b">
         <f>FALSE()</f>
@@ -8758,7 +8762,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>82</v>
@@ -8770,13 +8774,13 @@
         <v>59</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="G187" s="1">
-        <v>850</v>
+        <v>50</v>
       </c>
       <c r="H187" s="7" t="b">
         <f>FALSE()</f>
@@ -8785,7 +8789,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>82</v>
@@ -8797,13 +8801,13 @@
         <v>59</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="G188" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H188" s="7" t="b">
         <f>FALSE()</f>
@@ -8812,7 +8816,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7" t="s">
-        <v>431</v>
+        <v>636</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>82</v>
@@ -8824,22 +8828,22 @@
         <v>59</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>97</v>
+        <v>455</v>
       </c>
       <c r="F189" s="7" t="s">
-        <v>98</v>
+        <v>452</v>
       </c>
       <c r="G189" s="1">
-        <v>425</v>
+        <v>160</v>
       </c>
       <c r="H189" s="7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7" t="s">
-        <v>494</v>
+        <v>637</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>82</v>
@@ -8851,13 +8855,13 @@
         <v>59</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="G190" s="1">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="H190" s="7" t="b">
         <f>FALSE()</f>
@@ -8866,7 +8870,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7" t="s">
-        <v>492</v>
+        <v>638</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>82</v>
@@ -8878,13 +8882,13 @@
         <v>59</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="G191" s="1">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="H191" s="7" t="b">
         <f>FALSE()</f>
@@ -8893,7 +8897,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7" t="s">
-        <v>514</v>
+        <v>639</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>82</v>
@@ -8905,13 +8909,13 @@
         <v>59</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="G192" s="1">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="H192" s="7" t="b">
         <f>FALSE()</f>
@@ -8920,58 +8924,463 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>323</v>
+        <v>54</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>652</v>
+        <v>459</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="G193" s="1">
-        <v>100</v>
-      </c>
-      <c r="H193" t="b">
+        <v>120</v>
+      </c>
+      <c r="H193" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G194" s="1">
+        <v>150</v>
+      </c>
+      <c r="H194" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G195" s="1">
+        <v>150</v>
+      </c>
+      <c r="H195" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G196" s="1">
+        <v>400</v>
+      </c>
+      <c r="H196" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G197" s="1">
+        <v>400</v>
+      </c>
+      <c r="H197" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G198" s="1">
+        <v>650</v>
+      </c>
+      <c r="H198" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G199" s="1">
+        <v>650</v>
+      </c>
+      <c r="H199" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G200" s="1">
+        <v>650</v>
+      </c>
+      <c r="H200" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G201" s="1">
+        <v>685</v>
+      </c>
+      <c r="H201" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G202" s="1">
+        <v>850</v>
+      </c>
+      <c r="H202" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G203" s="1">
+        <v>600</v>
+      </c>
+      <c r="H203" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G204" s="1">
+        <v>425</v>
+      </c>
+      <c r="H204" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G205" s="1">
+        <v>300</v>
+      </c>
+      <c r="H205" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G206" s="1">
+        <v>150</v>
+      </c>
+      <c r="H206" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G207" s="1">
+        <v>165</v>
+      </c>
+      <c r="H207" s="7" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G208" s="1">
+        <v>100</v>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E209" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F209" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G194" s="1">
+      <c r="G209" s="1">
         <v>100</v>
       </c>
-      <c r="H194" t="b">
+      <c r="H209" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I102"/>
+  <autoFilter ref="A1:I117"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -30510,9 +30919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMF108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -3322,7 +3322,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3369,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3416,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3762,7 +3762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3773,8 +3773,8 @@
   <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -6556,7 +6556,7 @@
         <v>376</v>
       </c>
       <c r="G77" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H77" s="1">
         <v>10</v>
@@ -6631,7 +6631,7 @@
         <v>18</v>
       </c>
       <c r="H79" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I79" s="1">
         <v>5</v>

--- a/data/hh3_data.xlsx
+++ b/data/hh3_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500"/>
+    <workbookView xWindow="-3345" yWindow="10695" windowWidth="25815" windowHeight="15495" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="army_lists" sheetId="4" r:id="rId4"/>
     <sheet name="hero_constraints" sheetId="5" r:id="rId5"/>
     <sheet name="warning_rules" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">army_lists!$A$1:$D$108</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="922">
   <si>
     <t>model_id</t>
   </si>
@@ -2032,12 +2033,6 @@
     <t>Logistical Benefit</t>
   </si>
   <si>
-    <t>[detachment] hammer-of-olympia</t>
-  </si>
-  <si>
-    <t>[detachment] ironfire-cohort</t>
-  </si>
-  <si>
     <t>['[astartes] veteran-tactical-squad', '[astartes] veteran-assault-squad', '[astartes] seeker-squad']</t>
   </si>
   <si>
@@ -2803,6 +2798,81 @@
   </si>
   <si>
     <t>Planetfall Speartip [Auxillary Detachment]</t>
+  </si>
+  <si>
+    <t>[iron warriors] crusade-primary-detachment</t>
+  </si>
+  <si>
+    <t>[iron warriors] combat-retinue</t>
+  </si>
+  <si>
+    <t>[iron warriors] officer-cadre</t>
+  </si>
+  <si>
+    <t>[iron warriors] army-vanguard</t>
+  </si>
+  <si>
+    <t>[iron warriors] armoured-fist</t>
+  </si>
+  <si>
+    <t>[iron warriors] tactical-support</t>
+  </si>
+  <si>
+    <t>[iron warriors] armoured-support</t>
+  </si>
+  <si>
+    <t>[iron warriors] heavy-support</t>
+  </si>
+  <si>
+    <t>[iron warriors] combat-pioneers</t>
+  </si>
+  <si>
+    <t>[iron warriors] shock-assault</t>
+  </si>
+  <si>
+    <t>[iron warriors] first-strike</t>
+  </si>
+  <si>
+    <t>[iron warriors] warlord</t>
+  </si>
+  <si>
+    <t>[iron warriors] lord-of-war</t>
+  </si>
+  <si>
+    <t>[iron warriors] allied-detachment</t>
+  </si>
+  <si>
+    <t>[iron warriors] logistical-benefit</t>
+  </si>
+  <si>
+    <t>[iron warriors] daemonic-manifestation</t>
+  </si>
+  <si>
+    <t>[iron warriors] veteran-cadre</t>
+  </si>
+  <si>
+    <t>[iron warriors] apothecarion-delegation</t>
+  </si>
+  <si>
+    <t>[iron warriors] techmarine-covenant</t>
+  </si>
+  <si>
+    <t>[iron warriors] recon-demi-company</t>
+  </si>
+  <si>
+    <t>[iron warriors] storm-battery</t>
+  </si>
+  <si>
+    <t>[iron warriors] planetfall-speartip</t>
+  </si>
+  <si>
+    <t>[iron warriors] hammer-of-olympia</t>
+  </si>
+  <si>
+    <t>[iron warriors] ironfire-cohort</t>
+  </si>
+  <si>
+    <t>['[iron warriors] praetor', '[iron warriors] praetor-jump-pack', '[iron warriors] praetor-cataphractii', '[iron warriors] praetor-tartaros', '[iron warriors] praetor-saturnine', '[iron warriors] centurion', '[iron warriors] centurion-cataphractii', '[iron warriors] centurion-jump-pack', '[iron warriors] centurion-tartaros', '[iron warriors] optae', '[iron warriors] damocles-command-rhino', '[iron warriors] librarian', '[iron warriors] legion-champion', '[iron warriors] vigilator', '[iron warriors] esoterist', '[iron warriors] master-of-signals', '[iron warriors] praevian', '[iron warriors] moritat', '[iron warriors] siege-breaker', '[iron warriors] overseer', '[iron warriors] herald', '[iron warriors] chaplain', '[iron warriors] master-of-descent', '[iron warriors] tactical-squad', '[iron warriors] despoiler-squad', '[iron warriors] assault-squad', '[iron warriors] breacher-squad', '[iron warriors] rhino', '[iron warriors] drop-pod', '[iron warriors] termite']</t>
   </si>
 </sst>
 </file>
@@ -3322,7 +3392,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3439,7 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3486,7 @@
         <xdr:cNvPr id="4" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3762,7 +3832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3772,9 +3842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+    <sheetView zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -3813,13 +3883,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>7</v>
@@ -3839,7 +3909,7 @@
         <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>224</v>
@@ -3879,10 +3949,10 @@
         <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>316</v>
@@ -3915,10 +3985,10 @@
         <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>317</v>
@@ -3951,10 +4021,10 @@
         <v>83</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>318</v>
@@ -3987,10 +4057,10 @@
         <v>83</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>319</v>
@@ -4023,10 +4093,10 @@
         <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>320</v>
@@ -4059,10 +4129,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>321</v>
@@ -4095,10 +4165,10 @@
         <v>83</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>322</v>
@@ -4131,10 +4201,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>323</v>
@@ -4167,10 +4237,10 @@
         <v>83</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>324</v>
@@ -4203,10 +4273,10 @@
         <v>83</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>325</v>
@@ -4239,7 +4309,7 @@
         <v>83</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>225</v>
@@ -4275,7 +4345,7 @@
         <v>83</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>226</v>
@@ -4311,7 +4381,7 @@
         <v>83</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>227</v>
@@ -4347,7 +4417,7 @@
         <v>83</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>645</v>
@@ -4374,7 +4444,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>82</v>
@@ -4386,10 +4456,10 @@
         <v>59</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -4410,7 +4480,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>82</v>
@@ -4422,10 +4492,10 @@
         <v>59</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -4446,7 +4516,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>82</v>
@@ -4458,10 +4528,10 @@
         <v>59</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -4482,7 +4552,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>82</v>
@@ -4494,10 +4564,10 @@
         <v>59</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -4518,7 +4588,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>82</v>
@@ -4530,10 +4600,10 @@
         <v>59</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -4554,7 +4624,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>82</v>
@@ -4566,10 +4636,10 @@
         <v>59</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -4590,7 +4660,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>82</v>
@@ -4599,13 +4669,13 @@
         <v>83</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -4626,7 +4696,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="6" t="s">
-        <v>257</v>
+        <v>897</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>82</v>
@@ -4635,7 +4705,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>224</v>
@@ -4666,7 +4736,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="6" t="s">
-        <v>258</v>
+        <v>898</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>82</v>
@@ -4675,13 +4745,13 @@
         <v>54</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -4702,7 +4772,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="6" t="s">
-        <v>259</v>
+        <v>899</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>82</v>
@@ -4711,13 +4781,13 @@
         <v>54</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -4738,7 +4808,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="6" t="s">
-        <v>260</v>
+        <v>900</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>82</v>
@@ -4747,13 +4817,13 @@
         <v>54</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -4774,7 +4844,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="6" t="s">
-        <v>261</v>
+        <v>901</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>82</v>
@@ -4783,13 +4853,13 @@
         <v>54</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -4810,7 +4880,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="6" t="s">
-        <v>262</v>
+        <v>902</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>82</v>
@@ -4819,13 +4889,13 @@
         <v>54</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -4846,7 +4916,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6" t="s">
-        <v>263</v>
+        <v>903</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>82</v>
@@ -4855,13 +4925,13 @@
         <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -4882,7 +4952,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="6" t="s">
-        <v>264</v>
+        <v>904</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>82</v>
@@ -4891,13 +4961,13 @@
         <v>54</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -4918,7 +4988,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="6" t="s">
-        <v>265</v>
+        <v>905</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>82</v>
@@ -4927,13 +4997,13 @@
         <v>54</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -4954,7 +5024,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="6" t="s">
-        <v>266</v>
+        <v>906</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>82</v>
@@ -4963,13 +5033,13 @@
         <v>54</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -4990,7 +5060,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="6" t="s">
-        <v>267</v>
+        <v>907</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>82</v>
@@ -4999,13 +5069,13 @@
         <v>54</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -5026,7 +5096,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="6" t="s">
-        <v>268</v>
+        <v>908</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>82</v>
@@ -5035,7 +5105,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>225</v>
@@ -5062,7 +5132,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="6" t="s">
-        <v>269</v>
+        <v>909</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>82</v>
@@ -5071,7 +5141,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>226</v>
@@ -5098,7 +5168,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="6" t="s">
-        <v>270</v>
+        <v>910</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>82</v>
@@ -5107,7 +5177,7 @@
         <v>54</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>227</v>
@@ -5134,7 +5204,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="6" t="s">
-        <v>644</v>
+        <v>911</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>82</v>
@@ -5143,7 +5213,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>645</v>
@@ -5170,7 +5240,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="6" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>82</v>
@@ -5182,10 +5252,10 @@
         <v>59</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -5206,7 +5276,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="6" t="s">
-        <v>875</v>
+        <v>913</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>82</v>
@@ -5218,10 +5288,10 @@
         <v>59</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -5242,7 +5312,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="6" t="s">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>82</v>
@@ -5254,10 +5324,10 @@
         <v>59</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -5278,7 +5348,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="6" t="s">
-        <v>878</v>
+        <v>915</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>82</v>
@@ -5290,10 +5360,10 @@
         <v>59</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -5314,7 +5384,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="6" t="s">
-        <v>879</v>
+        <v>916</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>82</v>
@@ -5326,10 +5396,10 @@
         <v>59</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -5350,7 +5420,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="6" t="s">
-        <v>880</v>
+        <v>917</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>82</v>
@@ -5362,10 +5432,10 @@
         <v>59</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -5386,7 +5456,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="6" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>82</v>
@@ -5395,13 +5465,13 @@
         <v>54</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -5422,7 +5492,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="6" t="s">
-        <v>646</v>
+        <v>919</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>82</v>
@@ -5434,10 +5504,10 @@
         <v>59</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>894</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>896</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -5458,7 +5528,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="6" t="s">
-        <v>647</v>
+        <v>920</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>82</v>
@@ -5470,10 +5540,10 @@
         <v>59</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -6295,7 +6365,7 @@
         <v>83</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>471</v>
@@ -6322,7 +6392,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>82</v>
@@ -6331,10 +6401,10 @@
         <v>83</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>375</v>
@@ -8238,7 +8308,7 @@
         <v>83</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>474</v>
@@ -11026,7 +11096,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>313</v>
@@ -11062,7 +11132,7 @@
   <dimension ref="A1:AMJ1768"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
@@ -12939,7 +13009,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="29" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>335</v>
@@ -12960,7 +13030,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="29" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>335</v>
@@ -12981,7 +13051,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="29" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>335</v>
@@ -13002,7 +13072,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="29" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>335</v>
@@ -13023,7 +13093,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>335</v>
@@ -13044,7 +13114,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>335</v>
@@ -13065,7 +13135,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="29" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>335</v>
@@ -13086,7 +13156,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>335</v>
@@ -13107,7 +13177,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>335</v>
@@ -13128,7 +13198,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="29" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>335</v>
@@ -13149,7 +13219,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="29" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>335</v>
@@ -13170,7 +13240,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="29" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>335</v>
@@ -13191,7 +13261,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="29" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>335</v>
@@ -13212,7 +13282,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>335</v>
@@ -13233,7 +13303,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>335</v>
@@ -13254,7 +13324,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="29" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>335</v>
@@ -13275,7 +13345,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>335</v>
@@ -13296,7 +13366,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>335</v>
@@ -13317,7 +13387,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="29" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>335</v>
@@ -13338,13 +13408,13 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="29" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>335</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D108" s="7">
         <v>10</v>
@@ -13359,7 +13429,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="29" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>335</v>
@@ -13380,7 +13450,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>473</v>
@@ -13401,7 +13471,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>473</v>
@@ -13422,7 +13492,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>473</v>
@@ -13443,7 +13513,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="29" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>473</v>
@@ -13464,7 +13534,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="29" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>473</v>
@@ -13485,7 +13555,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="29" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>473</v>
@@ -13506,7 +13576,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="29" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>473</v>
@@ -13527,7 +13597,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="29" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>473</v>
@@ -13548,7 +13618,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>473</v>
@@ -13569,7 +13639,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>473</v>
@@ -13590,7 +13660,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="29" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>473</v>
@@ -13611,7 +13681,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="29" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>473</v>
@@ -13632,7 +13702,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="29" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>473</v>
@@ -13653,7 +13723,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>473</v>
@@ -13674,7 +13744,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>473</v>
@@ -13695,7 +13765,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="29" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>473</v>
@@ -13716,7 +13786,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="29" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>473</v>
@@ -13737,7 +13807,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="29" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>473</v>
@@ -13758,7 +13828,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="29" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>473</v>
@@ -13779,7 +13849,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="29" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>473</v>
@@ -13800,7 +13870,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="29" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>473</v>
@@ -13821,7 +13891,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="29" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>473</v>
@@ -13842,7 +13912,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="29" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>473</v>
@@ -13863,7 +13933,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="29" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>473</v>
@@ -13884,7 +13954,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="29" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>473</v>
@@ -13905,7 +13975,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="29" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>473</v>
@@ -13926,7 +13996,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="29" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>473</v>
@@ -13947,7 +14017,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="29" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>473</v>
@@ -13968,7 +14038,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="29" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>473</v>
@@ -13989,7 +14059,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="29" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>336</v>
@@ -14010,7 +14080,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="29" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>336</v>
@@ -14031,7 +14101,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="29" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>336</v>
@@ -14052,7 +14122,7 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>336</v>
@@ -14073,7 +14143,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="29" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>336</v>
@@ -14094,7 +14164,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>336</v>
@@ -14115,7 +14185,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>336</v>
@@ -14136,7 +14206,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>336</v>
@@ -14157,7 +14227,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="29" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>336</v>
@@ -14178,7 +14248,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="29" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>336</v>
@@ -14199,7 +14269,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="29" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>336</v>
@@ -14220,7 +14290,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="29" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>336</v>
@@ -14241,7 +14311,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="29" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>336</v>
@@ -14262,7 +14332,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="29" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>336</v>
@@ -14283,7 +14353,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="29" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>337</v>
@@ -14304,7 +14374,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>337</v>
@@ -14325,7 +14395,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="29" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>337</v>
@@ -14346,7 +14416,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="29" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>337</v>
@@ -14367,7 +14437,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="29" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>337</v>
@@ -14388,7 +14458,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="29" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>337</v>
@@ -14409,7 +14479,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="29" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>337</v>
@@ -14430,7 +14500,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="29" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>337</v>
@@ -14451,7 +14521,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="29" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>337</v>
@@ -14472,7 +14542,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="29" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>337</v>
@@ -14493,7 +14563,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="29" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>337</v>
@@ -14514,7 +14584,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>337</v>
@@ -14535,7 +14605,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>337</v>
@@ -14556,7 +14626,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="29" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>337</v>
@@ -14577,7 +14647,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="29" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>338</v>
@@ -14598,7 +14668,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="29" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>338</v>
@@ -14619,7 +14689,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="29" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>338</v>
@@ -14640,7 +14710,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="29" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>338</v>
@@ -14661,7 +14731,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="29" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>338</v>
@@ -14682,7 +14752,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="29" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>338</v>
@@ -14703,7 +14773,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="29" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>338</v>
@@ -14724,7 +14794,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="29" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>338</v>
@@ -14745,7 +14815,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="29" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>338</v>
@@ -14766,7 +14836,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="29" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>338</v>
@@ -14787,7 +14857,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>338</v>
@@ -14808,7 +14878,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>338</v>
@@ -14829,7 +14899,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>338</v>
@@ -14850,7 +14920,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="29" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>338</v>
@@ -14871,7 +14941,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>338</v>
@@ -14892,7 +14962,7 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="29" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>338</v>
@@ -14913,7 +14983,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="29" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>338</v>
@@ -14934,7 +15004,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="29" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>338</v>
@@ -14955,7 +15025,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="29" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>338</v>
@@ -14976,7 +15046,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="29" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>338</v>
@@ -14997,7 +15067,7 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="29" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>338</v>
@@ -15018,7 +15088,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="29" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>338</v>
@@ -15039,7 +15109,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="29" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>338</v>
@@ -15060,7 +15130,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="29" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>338</v>
@@ -15081,7 +15151,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="29" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>338</v>
@@ -15102,13 +15172,13 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="29" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D192" s="7">
         <v>5</v>
@@ -15123,13 +15193,13 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="29" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D193" s="7">
         <v>5</v>
@@ -15144,13 +15214,13 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="29" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D194" s="7">
         <v>10</v>
@@ -15165,13 +15235,13 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="29" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D195" s="7">
         <v>10</v>
@@ -15186,13 +15256,13 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="29" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D196" s="7">
         <v>10</v>
@@ -15207,13 +15277,13 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="29" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D197" s="7">
         <v>10</v>
@@ -15228,13 +15298,13 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="29" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D198" s="7">
         <v>5</v>
@@ -15249,13 +15319,13 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D199" s="7">
         <v>10</v>
@@ -15270,13 +15340,13 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="29" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D200" s="7">
         <v>10</v>
@@ -15291,13 +15361,13 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="29" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D201" s="7">
         <v>25</v>
@@ -15312,13 +15382,13 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="29" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D202" s="7">
         <v>5</v>
@@ -15333,13 +15403,13 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="29" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D203" s="7">
         <v>10</v>
@@ -15354,7 +15424,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="29" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>342</v>
@@ -15375,7 +15445,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="29" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>342</v>
@@ -15396,7 +15466,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="29" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>342</v>
@@ -15417,13 +15487,13 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="29" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D207" s="7">
         <v>20</v>
@@ -15438,13 +15508,13 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D208" s="7">
         <v>10</v>
@@ -15459,13 +15529,13 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="29" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D209" s="7">
         <v>20</v>
@@ -15480,13 +15550,13 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D210" s="7">
         <v>20</v>
@@ -15501,13 +15571,13 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D211" s="7">
         <v>0</v>
@@ -15522,13 +15592,13 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D212" s="7">
         <v>10</v>
@@ -15543,7 +15613,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>343</v>
@@ -15564,7 +15634,7 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>343</v>
@@ -15585,7 +15655,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="29" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>346</v>
@@ -15606,7 +15676,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="29" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>346</v>
@@ -15627,7 +15697,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="29" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>346</v>
@@ -15648,7 +15718,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="29" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>347</v>
@@ -15669,7 +15739,7 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="29" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>347</v>
@@ -15690,7 +15760,7 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="29" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>347</v>
@@ -15711,7 +15781,7 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="29" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>347</v>
@@ -15732,13 +15802,13 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="29" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>348</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D222" s="29">
         <v>10</v>
@@ -15753,7 +15823,7 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>348</v>
@@ -15774,7 +15844,7 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="29" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>349</v>
@@ -15795,7 +15865,7 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="29" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>349</v>
@@ -15816,13 +15886,13 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="29" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C226" s="29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D226" s="29">
         <v>0</v>
@@ -15837,7 +15907,7 @@
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="29" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>350</v>
@@ -15858,7 +15928,7 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="29" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>350</v>
@@ -15879,7 +15949,7 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>350</v>
@@ -15900,13 +15970,13 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C230" s="29" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D230" s="29">
         <v>10</v>
@@ -15921,7 +15991,7 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="29" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>350</v>
@@ -15942,7 +16012,7 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="29" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>351</v>
@@ -15963,7 +16033,7 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="29" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>351</v>
@@ -15984,7 +16054,7 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="29" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>352</v>
@@ -16005,7 +16075,7 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="29" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>352</v>
@@ -16026,7 +16096,7 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="29" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>352</v>
@@ -16047,7 +16117,7 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="29" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>352</v>
@@ -16068,7 +16138,7 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="29" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>470</v>
@@ -16089,7 +16159,7 @@
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="29" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>470</v>
@@ -16110,7 +16180,7 @@
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="29" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>470</v>
@@ -16131,7 +16201,7 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="29" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>470</v>
@@ -16152,7 +16222,7 @@
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="29" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>470</v>
@@ -16173,7 +16243,7 @@
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="29" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>470</v>
@@ -16194,7 +16264,7 @@
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="29" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>470</v>
@@ -16215,7 +16285,7 @@
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="29" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>470</v>
@@ -16236,7 +16306,7 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="29" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>470</v>
@@ -16257,7 +16327,7 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="29" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>470</v>
@@ -16278,7 +16348,7 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="29" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>470</v>
@@ -16299,7 +16369,7 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="29" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>470</v>
@@ -16320,7 +16390,7 @@
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="29" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>470</v>
@@ -16341,7 +16411,7 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="29" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>470</v>
@@ -16362,7 +16432,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="29" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>470</v>
@@ -16383,7 +16453,7 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="29" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>470</v>
@@ -16404,7 +16474,7 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="29" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>421</v>
@@ -16425,7 +16495,7 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="29" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>484</v>
@@ -16446,7 +16516,7 @@
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="29" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>484</v>
@@ -16467,7 +16537,7 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="29" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>484</v>
@@ -16488,7 +16558,7 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="29" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>484</v>
@@ -16509,7 +16579,7 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="29" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>484</v>
@@ -16530,7 +16600,7 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="29" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>484</v>
@@ -16551,7 +16621,7 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="29" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>484</v>
@@ -16572,7 +16642,7 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="29" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>484</v>
@@ -16593,7 +16663,7 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="29" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>484</v>
@@ -16614,7 +16684,7 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="29" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>504</v>
@@ -31673,7 +31743,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
@@ -32625,7 +32695,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
@@ -32639,7 +32709,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
@@ -33116,11 +33186,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -33146,7 +33216,7 @@
         <v>257</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>9</v>
@@ -33157,7 +33227,7 @@
         <v>258</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>9</v>
@@ -33168,7 +33238,7 @@
         <v>259</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>9</v>
@@ -33179,7 +33249,7 @@
         <v>260</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>9</v>
@@ -33190,7 +33260,7 @@
         <v>261</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>9</v>
@@ -33201,7 +33271,7 @@
         <v>262</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>9</v>
@@ -33212,7 +33282,7 @@
         <v>263</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>9</v>
@@ -33223,7 +33293,7 @@
         <v>264</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>9</v>
@@ -33234,7 +33304,7 @@
         <v>265</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
@@ -33245,7 +33315,7 @@
         <v>266</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>9</v>
@@ -33256,7 +33326,7 @@
         <v>267</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>9</v>
@@ -33267,7 +33337,7 @@
         <v>268</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>9</v>
@@ -33278,7 +33348,7 @@
         <v>269</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>9</v>
@@ -33289,7 +33359,7 @@
         <v>270</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>9</v>
@@ -33297,10 +33367,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>9</v>
@@ -33308,105 +33375,270 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>665</v>
+        <v>868</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>877</v>
+      </c>
       <c r="B21" s="38"/>
+      <c r="C21" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="105">
+      <c r="A24" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="6"/>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="6"/>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="6"/>
@@ -33423,15 +33655,15 @@
     <row r="55" spans="1:1">
       <c r="A55" s="6"/>
     </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6"/>
+    </row>
     <row r="57" spans="1:1">
       <c r="A57" s="6"/>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="6"/>
-    </row>
     <row r="60" spans="1:1">
       <c r="A60" s="6"/>
     </row>
@@ -33447,35 +33679,20 @@
     <row r="64" spans="1:1">
       <c r="A64" s="6"/>
     </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6"/>
+    </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6"/>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="6"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="6"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="6"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="6"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="6"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="6"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="6"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="6"/>
+    <row r="91" spans="1:1">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1"/>
@@ -33537,7 +33754,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>99</v>
@@ -33551,7 +33768,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>96</v>
@@ -33583,4 +33800,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="116.5703125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>